--- a/data-migration/xlsx_1900-/1916_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1916_Winter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907412B-37FD-4CBE-8CF4-182F148DAFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E3261-0878-4467-85AC-9218612B0E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1379">
   <si>
     <t>Winter</t>
   </si>
@@ -4154,6 +4154,9 @@
   </si>
   <si>
     <t>hess_wr</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4503,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9437,7 +9440,7 @@
         <v>1255</v>
       </c>
       <c r="I188" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -9463,7 +9466,7 @@
         <v>1255</v>
       </c>
       <c r="I189" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,7 +9492,7 @@
         <v>1255</v>
       </c>
       <c r="I190" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -9515,7 +9518,7 @@
         <v>1255</v>
       </c>
       <c r="I191" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -9645,7 +9648,7 @@
         <v>1334</v>
       </c>
       <c r="I196" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -9671,7 +9674,7 @@
         <v>1334</v>
       </c>
       <c r="I197" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9697,7 +9700,7 @@
         <v>1334</v>
       </c>
       <c r="I198" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9723,7 +9726,7 @@
         <v>1334</v>
       </c>
       <c r="I199" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1916_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1916_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E3261-0878-4467-85AC-9218612B0E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B374E-2104-47C5-8F18-1C4E2041EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1379">
   <si>
     <t>Winter</t>
   </si>
@@ -3994,9 +3994,6 @@
     <t>jud_j</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -4075,9 +4072,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4157,6 +4151,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4506,20 +4506,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1916</v>
       </c>
@@ -4542,10 +4542,10 @@
         <v>1200</v>
       </c>
       <c r="I1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1916</v>
       </c>
@@ -4568,10 +4568,10 @@
         <v>1201</v>
       </c>
       <c r="I2" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1916</v>
       </c>
@@ -4591,16 +4591,16 @@
         <v>922</v>
       </c>
       <c r="H3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J3" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1916</v>
       </c>
@@ -4623,10 +4623,10 @@
         <v>1203</v>
       </c>
       <c r="I4" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1916</v>
       </c>
@@ -4646,16 +4646,16 @@
         <v>924</v>
       </c>
       <c r="H5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J5" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1916</v>
       </c>
@@ -4675,16 +4675,16 @@
         <v>925</v>
       </c>
       <c r="H6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I6" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J6" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1916</v>
       </c>
@@ -4707,10 +4707,10 @@
         <v>1203</v>
       </c>
       <c r="I7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1916</v>
       </c>
@@ -4733,10 +4733,10 @@
         <v>1201</v>
       </c>
       <c r="I8" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1916</v>
       </c>
@@ -4756,13 +4756,13 @@
         <v>928</v>
       </c>
       <c r="H9" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I9" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1916</v>
       </c>
@@ -4785,10 +4785,10 @@
         <v>1204</v>
       </c>
       <c r="I10" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1916</v>
       </c>
@@ -4811,10 +4811,10 @@
         <v>1201</v>
       </c>
       <c r="I11" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1916</v>
       </c>
@@ -4837,10 +4837,10 @@
         <v>1204</v>
       </c>
       <c r="I12" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1916</v>
       </c>
@@ -4863,10 +4863,10 @@
         <v>1201</v>
       </c>
       <c r="I13" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1916</v>
       </c>
@@ -4889,10 +4889,10 @@
         <v>1202</v>
       </c>
       <c r="I14" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1916</v>
       </c>
@@ -4915,10 +4915,10 @@
         <v>1202</v>
       </c>
       <c r="I15" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1916</v>
       </c>
@@ -4935,10 +4935,10 @@
         <v>482</v>
       </c>
       <c r="H16" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1916</v>
       </c>
@@ -4961,10 +4961,10 @@
         <v>1200</v>
       </c>
       <c r="I17" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1916</v>
       </c>
@@ -4981,10 +4981,10 @@
         <v>484</v>
       </c>
       <c r="H18" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1916</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>921</v>
       </c>
       <c r="H19" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I19" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1916</v>
       </c>
@@ -5030,13 +5030,13 @@
         <v>934</v>
       </c>
       <c r="H20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I20" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1916</v>
       </c>
@@ -5059,10 +5059,10 @@
         <v>1203</v>
       </c>
       <c r="I21" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1916</v>
       </c>
@@ -5082,13 +5082,13 @@
         <v>936</v>
       </c>
       <c r="H22" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I22" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1916</v>
       </c>
@@ -5111,10 +5111,10 @@
         <v>1201</v>
       </c>
       <c r="I23" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1916</v>
       </c>
@@ -5137,10 +5137,10 @@
         <v>1202</v>
       </c>
       <c r="I24" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1916</v>
       </c>
@@ -5163,10 +5163,10 @@
         <v>1200</v>
       </c>
       <c r="I25" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1916</v>
       </c>
@@ -5186,13 +5186,13 @@
         <v>940</v>
       </c>
       <c r="H26" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I26" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1916</v>
       </c>
@@ -5215,10 +5215,10 @@
         <v>1200</v>
       </c>
       <c r="I27" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1916</v>
       </c>
@@ -5241,10 +5241,10 @@
         <v>1205</v>
       </c>
       <c r="I28" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1916</v>
       </c>
@@ -5267,10 +5267,10 @@
         <v>1206</v>
       </c>
       <c r="I29" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1916</v>
       </c>
@@ -5293,10 +5293,10 @@
         <v>1206</v>
       </c>
       <c r="I30" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1916</v>
       </c>
@@ -5319,10 +5319,10 @@
         <v>1207</v>
       </c>
       <c r="I31" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1916</v>
       </c>
@@ -5345,10 +5345,10 @@
         <v>1207</v>
       </c>
       <c r="I32" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1916</v>
       </c>
@@ -5371,10 +5371,10 @@
         <v>1208</v>
       </c>
       <c r="I33" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1916</v>
       </c>
@@ -5397,10 +5397,10 @@
         <v>1209</v>
       </c>
       <c r="I34" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1916</v>
       </c>
@@ -5423,10 +5423,10 @@
         <v>1209</v>
       </c>
       <c r="I35" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1916</v>
       </c>
@@ -5446,13 +5446,13 @@
         <v>937</v>
       </c>
       <c r="H36" t="s">
-        <v>1324</v>
+        <v>1377</v>
       </c>
       <c r="I36" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1916</v>
       </c>
@@ -5475,10 +5475,10 @@
         <v>1210</v>
       </c>
       <c r="I37" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1916</v>
       </c>
@@ -5501,10 +5501,10 @@
         <v>1208</v>
       </c>
       <c r="I38" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1916</v>
       </c>
@@ -5527,10 +5527,10 @@
         <v>1208</v>
       </c>
       <c r="I39" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1916</v>
       </c>
@@ -5553,10 +5553,10 @@
         <v>1208</v>
       </c>
       <c r="I40" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1916</v>
       </c>
@@ -5579,10 +5579,10 @@
         <v>1211</v>
       </c>
       <c r="I41" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1916</v>
       </c>
@@ -5605,10 +5605,10 @@
         <v>1211</v>
       </c>
       <c r="I42" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1916</v>
       </c>
@@ -5631,10 +5631,10 @@
         <v>1205</v>
       </c>
       <c r="I43" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1916</v>
       </c>
@@ -5657,10 +5657,10 @@
         <v>1211</v>
       </c>
       <c r="I44" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1916</v>
       </c>
@@ -5683,10 +5683,10 @@
         <v>1211</v>
       </c>
       <c r="I45" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1916</v>
       </c>
@@ -5709,10 +5709,10 @@
         <v>1205</v>
       </c>
       <c r="I46" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1916</v>
       </c>
@@ -5735,10 +5735,10 @@
         <v>1212</v>
       </c>
       <c r="I47" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1916</v>
       </c>
@@ -5761,10 +5761,10 @@
         <v>1212</v>
       </c>
       <c r="I48" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1916</v>
       </c>
@@ -5784,13 +5784,13 @@
         <v>960</v>
       </c>
       <c r="H49" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I49" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1916</v>
       </c>
@@ -5813,10 +5813,10 @@
         <v>1213</v>
       </c>
       <c r="I50" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1916</v>
       </c>
@@ -5839,10 +5839,10 @@
         <v>1213</v>
       </c>
       <c r="I51" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1916</v>
       </c>
@@ -5865,10 +5865,10 @@
         <v>1214</v>
       </c>
       <c r="I52" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1916</v>
       </c>
@@ -5891,10 +5891,10 @@
         <v>1214</v>
       </c>
       <c r="I53" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1916</v>
       </c>
@@ -5917,10 +5917,10 @@
         <v>1215</v>
       </c>
       <c r="I54" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1916</v>
       </c>
@@ -5943,10 +5943,10 @@
         <v>1215</v>
       </c>
       <c r="I55" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1916</v>
       </c>
@@ -5966,13 +5966,13 @@
         <v>966</v>
       </c>
       <c r="H56" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I56" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1916</v>
       </c>
@@ -5995,10 +5995,10 @@
         <v>1217</v>
       </c>
       <c r="I57" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1916</v>
       </c>
@@ -6021,10 +6021,10 @@
         <v>1217</v>
       </c>
       <c r="I58" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1916</v>
       </c>
@@ -6047,10 +6047,10 @@
         <v>1218</v>
       </c>
       <c r="I59" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1916</v>
       </c>
@@ -6073,10 +6073,10 @@
         <v>1215</v>
       </c>
       <c r="I60" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1916</v>
       </c>
@@ -6096,13 +6096,13 @@
         <v>969</v>
       </c>
       <c r="H61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I61" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1916</v>
       </c>
@@ -6122,13 +6122,13 @@
         <v>970</v>
       </c>
       <c r="H62" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I62" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1916</v>
       </c>
@@ -6151,13 +6151,13 @@
         <v>1220</v>
       </c>
       <c r="I63" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J63" t="s">
         <v>1364</v>
       </c>
-      <c r="J63" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1916</v>
       </c>
@@ -6180,10 +6180,10 @@
         <v>1221</v>
       </c>
       <c r="I64" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1916</v>
       </c>
@@ -6206,10 +6206,10 @@
         <v>1222</v>
       </c>
       <c r="I65" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1916</v>
       </c>
@@ -6232,10 +6232,10 @@
         <v>1205</v>
       </c>
       <c r="I66" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1916</v>
       </c>
@@ -6258,10 +6258,10 @@
         <v>1223</v>
       </c>
       <c r="I67" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1916</v>
       </c>
@@ -6284,10 +6284,10 @@
         <v>1209</v>
       </c>
       <c r="I68" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1916</v>
       </c>
@@ -6307,13 +6307,13 @@
         <v>974</v>
       </c>
       <c r="H69" t="s">
-        <v>1324</v>
+        <v>1377</v>
       </c>
       <c r="I69" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1916</v>
       </c>
@@ -6336,10 +6336,10 @@
         <v>1211</v>
       </c>
       <c r="I70" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1916</v>
       </c>
@@ -6362,10 +6362,10 @@
         <v>1212</v>
       </c>
       <c r="I71" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1916</v>
       </c>
@@ -6388,10 +6388,10 @@
         <v>1213</v>
       </c>
       <c r="I72" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1916</v>
       </c>
@@ -6414,10 +6414,10 @@
         <v>1224</v>
       </c>
       <c r="I73" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1916</v>
       </c>
@@ -6440,10 +6440,10 @@
         <v>1214</v>
       </c>
       <c r="I74" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1916</v>
       </c>
@@ -6466,10 +6466,10 @@
         <v>1214</v>
       </c>
       <c r="I75" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1916</v>
       </c>
@@ -6492,10 +6492,10 @@
         <v>1215</v>
       </c>
       <c r="I76" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1916</v>
       </c>
@@ -6518,10 +6518,10 @@
         <v>1215</v>
       </c>
       <c r="I77" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1916</v>
       </c>
@@ -6544,10 +6544,10 @@
         <v>1221</v>
       </c>
       <c r="I78" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1916</v>
       </c>
@@ -6567,13 +6567,13 @@
         <v>979</v>
       </c>
       <c r="H79" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I79" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1916</v>
       </c>
@@ -6593,13 +6593,13 @@
         <v>980</v>
       </c>
       <c r="H80" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I80" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1916</v>
       </c>
@@ -6622,13 +6622,13 @@
         <v>1220</v>
       </c>
       <c r="I81" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J81" t="s">
         <v>1364</v>
       </c>
-      <c r="J81" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1916</v>
       </c>
@@ -6651,13 +6651,13 @@
         <v>1220</v>
       </c>
       <c r="I82" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J82" t="s">
         <v>1364</v>
       </c>
-      <c r="J82" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1916</v>
       </c>
@@ -6680,10 +6680,10 @@
         <v>1225</v>
       </c>
       <c r="I83" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1916</v>
       </c>
@@ -6706,10 +6706,10 @@
         <v>1226</v>
       </c>
       <c r="I84" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1916</v>
       </c>
@@ -6735,10 +6735,10 @@
         <v>1226</v>
       </c>
       <c r="I85" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1916</v>
       </c>
@@ -6764,10 +6764,10 @@
         <v>1226</v>
       </c>
       <c r="I86" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1916</v>
       </c>
@@ -6790,10 +6790,10 @@
         <v>1226</v>
       </c>
       <c r="I87" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1916</v>
       </c>
@@ -6819,10 +6819,10 @@
         <v>1227</v>
       </c>
       <c r="I88" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1916</v>
       </c>
@@ -6848,10 +6848,10 @@
         <v>1227</v>
       </c>
       <c r="I89" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1916</v>
       </c>
@@ -6871,13 +6871,13 @@
         <v>989</v>
       </c>
       <c r="H90" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I90" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1916</v>
       </c>
@@ -6900,10 +6900,10 @@
         <v>1228</v>
       </c>
       <c r="I91" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1916</v>
       </c>
@@ -6926,10 +6926,10 @@
         <v>1228</v>
       </c>
       <c r="I92" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1916</v>
       </c>
@@ -6949,13 +6949,13 @@
         <v>991</v>
       </c>
       <c r="H93" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I93" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1916</v>
       </c>
@@ -6975,13 +6975,13 @@
         <v>992</v>
       </c>
       <c r="H94" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I94" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1916</v>
       </c>
@@ -7001,13 +7001,13 @@
         <v>986</v>
       </c>
       <c r="H95" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I95" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1916</v>
       </c>
@@ -7030,10 +7030,10 @@
         <v>1229</v>
       </c>
       <c r="I96" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1916</v>
       </c>
@@ -7056,10 +7056,10 @@
         <v>1229</v>
       </c>
       <c r="I97" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1916</v>
       </c>
@@ -7079,13 +7079,13 @@
         <v>993</v>
       </c>
       <c r="H98" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I98" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1916</v>
       </c>
@@ -7108,10 +7108,10 @@
         <v>1230</v>
       </c>
       <c r="I99" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1916</v>
       </c>
@@ -7131,13 +7131,13 @@
         <v>995</v>
       </c>
       <c r="H100" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="I100" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1916</v>
       </c>
@@ -7160,10 +7160,10 @@
         <v>1231</v>
       </c>
       <c r="I101" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1916</v>
       </c>
@@ -7186,10 +7186,10 @@
         <v>1231</v>
       </c>
       <c r="I102" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1916</v>
       </c>
@@ -7212,10 +7212,10 @@
         <v>1231</v>
       </c>
       <c r="I103" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1916</v>
       </c>
@@ -7238,10 +7238,10 @@
         <v>1231</v>
       </c>
       <c r="I104" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1916</v>
       </c>
@@ -7264,10 +7264,10 @@
         <v>1231</v>
       </c>
       <c r="I105" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1916</v>
       </c>
@@ -7290,10 +7290,10 @@
         <v>1231</v>
       </c>
       <c r="I106" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1916</v>
       </c>
@@ -7313,13 +7313,13 @@
         <v>1000</v>
       </c>
       <c r="H107" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I107" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1916</v>
       </c>
@@ -7339,13 +7339,13 @@
         <v>1001</v>
       </c>
       <c r="H108" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I108" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1916</v>
       </c>
@@ -7368,10 +7368,10 @@
         <v>1232</v>
       </c>
       <c r="I109" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1916</v>
       </c>
@@ -7394,10 +7394,10 @@
         <v>1232</v>
       </c>
       <c r="I110" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1916</v>
       </c>
@@ -7420,10 +7420,10 @@
         <v>1232</v>
       </c>
       <c r="I111" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1916</v>
       </c>
@@ -7446,10 +7446,10 @@
         <v>1216</v>
       </c>
       <c r="I112" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1916</v>
       </c>
@@ -7472,10 +7472,10 @@
         <v>1216</v>
       </c>
       <c r="I113" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1916</v>
       </c>
@@ -7495,13 +7495,13 @@
         <v>1007</v>
       </c>
       <c r="H114" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I114" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1916</v>
       </c>
@@ -7521,13 +7521,13 @@
         <v>921</v>
       </c>
       <c r="H115" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I115" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1916</v>
       </c>
@@ -7547,13 +7547,13 @@
         <v>1008</v>
       </c>
       <c r="H116" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I116" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1916</v>
       </c>
@@ -7576,10 +7576,10 @@
         <v>1233</v>
       </c>
       <c r="I117" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1916</v>
       </c>
@@ -7602,10 +7602,10 @@
         <v>1233</v>
       </c>
       <c r="I118" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1916</v>
       </c>
@@ -7628,10 +7628,10 @@
         <v>1233</v>
       </c>
       <c r="I119" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1916</v>
       </c>
@@ -7654,10 +7654,10 @@
         <v>1234</v>
       </c>
       <c r="I120" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1916</v>
       </c>
@@ -7680,10 +7680,10 @@
         <v>1234</v>
       </c>
       <c r="I121" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1916</v>
       </c>
@@ -7703,13 +7703,13 @@
         <v>989</v>
       </c>
       <c r="H122" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I122" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1916</v>
       </c>
@@ -7732,10 +7732,10 @@
         <v>1230</v>
       </c>
       <c r="I123" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1916</v>
       </c>
@@ -7758,10 +7758,10 @@
         <v>1230</v>
       </c>
       <c r="I124" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1916</v>
       </c>
@@ -7784,10 +7784,10 @@
         <v>1235</v>
       </c>
       <c r="I125" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1916</v>
       </c>
@@ -7810,10 +7810,10 @@
         <v>1235</v>
       </c>
       <c r="I126" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1916</v>
       </c>
@@ -7836,10 +7836,10 @@
         <v>1235</v>
       </c>
       <c r="I127" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1916</v>
       </c>
@@ -7859,13 +7859,13 @@
         <v>1013</v>
       </c>
       <c r="H128" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I128" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1916</v>
       </c>
@@ -7888,10 +7888,10 @@
         <v>1236</v>
       </c>
       <c r="I129" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1916</v>
       </c>
@@ -7914,10 +7914,10 @@
         <v>1236</v>
       </c>
       <c r="I130" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1916</v>
       </c>
@@ -7937,13 +7937,13 @@
         <v>1016</v>
       </c>
       <c r="H131" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I131" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1916</v>
       </c>
@@ -7966,10 +7966,10 @@
         <v>1237</v>
       </c>
       <c r="I132" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1916</v>
       </c>
@@ -7992,10 +7992,10 @@
         <v>1237</v>
       </c>
       <c r="I133" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1916</v>
       </c>
@@ -8018,10 +8018,10 @@
         <v>1237</v>
       </c>
       <c r="I134" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1916</v>
       </c>
@@ -8044,10 +8044,10 @@
         <v>1238</v>
       </c>
       <c r="I135" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1916</v>
       </c>
@@ -8070,10 +8070,10 @@
         <v>1238</v>
       </c>
       <c r="I136" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1916</v>
       </c>
@@ -8096,10 +8096,10 @@
         <v>1239</v>
       </c>
       <c r="I137" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1916</v>
       </c>
@@ -8122,10 +8122,10 @@
         <v>1240</v>
       </c>
       <c r="I138" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1916</v>
       </c>
@@ -8148,10 +8148,10 @@
         <v>1241</v>
       </c>
       <c r="I139" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1916</v>
       </c>
@@ -8171,19 +8171,19 @@
         <v>989</v>
       </c>
       <c r="H140" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I140" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="K140" t="s">
         <v>1242</v>
       </c>
       <c r="L140" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1916</v>
       </c>
@@ -8203,13 +8203,13 @@
         <v>1022</v>
       </c>
       <c r="H141" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I141" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1916</v>
       </c>
@@ -8229,13 +8229,13 @@
         <v>1023</v>
       </c>
       <c r="H142" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I142" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1916</v>
       </c>
@@ -8258,10 +8258,10 @@
         <v>1242</v>
       </c>
       <c r="I143" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1916</v>
       </c>
@@ -8284,10 +8284,10 @@
         <v>1243</v>
       </c>
       <c r="I144" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1916</v>
       </c>
@@ -8310,13 +8310,13 @@
         <v>1244</v>
       </c>
       <c r="I145" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J145" t="s">
         <v>1364</v>
       </c>
-      <c r="J145" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1916</v>
       </c>
@@ -8339,13 +8339,13 @@
         <v>1244</v>
       </c>
       <c r="I146" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J146" t="s">
         <v>1364</v>
       </c>
-      <c r="J146" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1916</v>
       </c>
@@ -8368,10 +8368,10 @@
         <v>1245</v>
       </c>
       <c r="I147" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1916</v>
       </c>
@@ -8394,10 +8394,10 @@
         <v>1246</v>
       </c>
       <c r="I148" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1916</v>
       </c>
@@ -8420,10 +8420,10 @@
         <v>1246</v>
       </c>
       <c r="I149" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1916</v>
       </c>
@@ -8443,13 +8443,13 @@
         <v>966</v>
       </c>
       <c r="H150" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I150" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1916</v>
       </c>
@@ -8469,13 +8469,13 @@
         <v>1029</v>
       </c>
       <c r="H151" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I151" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1916</v>
       </c>
@@ -8495,13 +8495,13 @@
         <v>1030</v>
       </c>
       <c r="H152" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I152" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1916</v>
       </c>
@@ -8521,13 +8521,13 @@
         <v>921</v>
       </c>
       <c r="H153" t="s">
-        <v>1351</v>
+        <v>1378</v>
       </c>
       <c r="I153" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1916</v>
       </c>
@@ -8547,13 +8547,13 @@
         <v>921</v>
       </c>
       <c r="H154" t="s">
-        <v>1351</v>
+        <v>1378</v>
       </c>
       <c r="I154" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1916</v>
       </c>
@@ -8573,13 +8573,13 @@
         <v>921</v>
       </c>
       <c r="H155" t="s">
-        <v>1351</v>
+        <v>1378</v>
       </c>
       <c r="I155" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1916</v>
       </c>
@@ -8602,10 +8602,10 @@
         <v>1247</v>
       </c>
       <c r="I156" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1916</v>
       </c>
@@ -8628,10 +8628,10 @@
         <v>1247</v>
       </c>
       <c r="I157" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1916</v>
       </c>
@@ -8651,13 +8651,13 @@
         <v>989</v>
       </c>
       <c r="H158" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I158" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1916</v>
       </c>
@@ -8680,10 +8680,10 @@
         <v>1248</v>
       </c>
       <c r="I159" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1916</v>
       </c>
@@ -8706,10 +8706,10 @@
         <v>1248</v>
       </c>
       <c r="I160" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1916</v>
       </c>
@@ -8732,10 +8732,10 @@
         <v>1248</v>
       </c>
       <c r="I161" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1916</v>
       </c>
@@ -8758,10 +8758,10 @@
         <v>1249</v>
       </c>
       <c r="I162" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1916</v>
       </c>
@@ -8784,10 +8784,10 @@
         <v>1249</v>
       </c>
       <c r="I163" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1916</v>
       </c>
@@ -8810,10 +8810,10 @@
         <v>1249</v>
       </c>
       <c r="I164" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1916</v>
       </c>
@@ -8833,13 +8833,13 @@
         <v>1034</v>
       </c>
       <c r="H165" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I165" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1916</v>
       </c>
@@ -8859,13 +8859,13 @@
         <v>989</v>
       </c>
       <c r="H166" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I166" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1916</v>
       </c>
@@ -8885,13 +8885,13 @@
         <v>1004</v>
       </c>
       <c r="H167" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I167" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1916</v>
       </c>
@@ -8911,13 +8911,13 @@
         <v>1035</v>
       </c>
       <c r="H168" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I168" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1916</v>
       </c>
@@ -8937,13 +8937,13 @@
         <v>1036</v>
       </c>
       <c r="H169" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I169" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1916</v>
       </c>
@@ -8963,13 +8963,13 @@
         <v>1037</v>
       </c>
       <c r="H170" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I170" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1916</v>
       </c>
@@ -8989,19 +8989,19 @@
         <v>1038</v>
       </c>
       <c r="H171" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I171" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K171" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="L171" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1916</v>
       </c>
@@ -9021,13 +9021,13 @@
         <v>1035</v>
       </c>
       <c r="H172" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I172" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1916</v>
       </c>
@@ -9047,13 +9047,13 @@
         <v>1039</v>
       </c>
       <c r="H173" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I173" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1916</v>
       </c>
@@ -9073,13 +9073,13 @@
         <v>921</v>
       </c>
       <c r="H174" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I174" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1916</v>
       </c>
@@ -9099,13 +9099,13 @@
         <v>1040</v>
       </c>
       <c r="H175" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I175" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1916</v>
       </c>
@@ -9128,10 +9128,10 @@
         <v>1250</v>
       </c>
       <c r="I176" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1916</v>
       </c>
@@ -9154,10 +9154,10 @@
         <v>1251</v>
       </c>
       <c r="I177" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1916</v>
       </c>
@@ -9180,10 +9180,10 @@
         <v>1251</v>
       </c>
       <c r="I178" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1916</v>
       </c>
@@ -9206,10 +9206,10 @@
         <v>1251</v>
       </c>
       <c r="I179" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1916</v>
       </c>
@@ -9232,10 +9232,10 @@
         <v>1251</v>
       </c>
       <c r="I180" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1916</v>
       </c>
@@ -9258,10 +9258,10 @@
         <v>1251</v>
       </c>
       <c r="I181" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1916</v>
       </c>
@@ -9284,10 +9284,10 @@
         <v>1252</v>
       </c>
       <c r="I182" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1916</v>
       </c>
@@ -9307,13 +9307,13 @@
         <v>1043</v>
       </c>
       <c r="H183" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I183" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1916</v>
       </c>
@@ -9333,13 +9333,13 @@
         <v>1044</v>
       </c>
       <c r="H184" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I184" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1916</v>
       </c>
@@ -9359,13 +9359,13 @@
         <v>1045</v>
       </c>
       <c r="H185" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I185" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1916</v>
       </c>
@@ -9388,10 +9388,10 @@
         <v>1253</v>
       </c>
       <c r="I186" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1916</v>
       </c>
@@ -9414,10 +9414,10 @@
         <v>1254</v>
       </c>
       <c r="I187" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1916</v>
       </c>
@@ -9440,10 +9440,10 @@
         <v>1255</v>
       </c>
       <c r="I188" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1916</v>
       </c>
@@ -9466,10 +9466,10 @@
         <v>1255</v>
       </c>
       <c r="I189" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1916</v>
       </c>
@@ -9492,10 +9492,10 @@
         <v>1255</v>
       </c>
       <c r="I190" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1916</v>
       </c>
@@ -9518,10 +9518,10 @@
         <v>1255</v>
       </c>
       <c r="I191" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1916</v>
       </c>
@@ -9541,13 +9541,13 @@
         <v>1043</v>
       </c>
       <c r="H192" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I192" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1916</v>
       </c>
@@ -9567,13 +9567,13 @@
         <v>1050</v>
       </c>
       <c r="H193" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I193" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1916</v>
       </c>
@@ -9593,13 +9593,13 @@
         <v>1051</v>
       </c>
       <c r="H194" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I194" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1916</v>
       </c>
@@ -9619,13 +9619,13 @@
         <v>1052</v>
       </c>
       <c r="H195" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I195" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1916</v>
       </c>
@@ -9645,13 +9645,13 @@
         <v>1053</v>
       </c>
       <c r="H196" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I196" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1916</v>
       </c>
@@ -9671,13 +9671,13 @@
         <v>950</v>
       </c>
       <c r="H197" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I197" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1916</v>
       </c>
@@ -9697,13 +9697,13 @@
         <v>1054</v>
       </c>
       <c r="H198" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I198" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1916</v>
       </c>
@@ -9723,13 +9723,13 @@
         <v>1055</v>
       </c>
       <c r="H199" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I199" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1916</v>
       </c>
@@ -9752,10 +9752,10 @@
         <v>1256</v>
       </c>
       <c r="I200" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1916</v>
       </c>
@@ -9778,10 +9778,10 @@
         <v>1256</v>
       </c>
       <c r="I201" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1916</v>
       </c>
@@ -9804,16 +9804,16 @@
         <v>1256</v>
       </c>
       <c r="I202" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K202" t="s">
         <v>1257</v>
       </c>
       <c r="L202" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1916</v>
       </c>
@@ -9836,10 +9836,10 @@
         <v>1256</v>
       </c>
       <c r="I203" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1916</v>
       </c>
@@ -9862,10 +9862,10 @@
         <v>1257</v>
       </c>
       <c r="I204" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1916</v>
       </c>
@@ -9888,10 +9888,10 @@
         <v>1258</v>
       </c>
       <c r="I205" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1916</v>
       </c>
@@ -9914,10 +9914,10 @@
         <v>1258</v>
       </c>
       <c r="I206" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1916</v>
       </c>
@@ -9940,10 +9940,10 @@
         <v>1258</v>
       </c>
       <c r="I207" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1916</v>
       </c>
@@ -9966,10 +9966,10 @@
         <v>1258</v>
       </c>
       <c r="I208" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1916</v>
       </c>
@@ -9992,10 +9992,10 @@
         <v>1259</v>
       </c>
       <c r="I209" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1916</v>
       </c>
@@ -10018,10 +10018,10 @@
         <v>1259</v>
       </c>
       <c r="I210" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1916</v>
       </c>
@@ -10044,10 +10044,10 @@
         <v>1259</v>
       </c>
       <c r="I211" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1916</v>
       </c>
@@ -10067,13 +10067,13 @@
         <v>1064</v>
       </c>
       <c r="H212" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I212" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1916</v>
       </c>
@@ -10093,13 +10093,13 @@
         <v>1043</v>
       </c>
       <c r="H213" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I213" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1916</v>
       </c>
@@ -10119,13 +10119,13 @@
         <v>1065</v>
       </c>
       <c r="H214" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I214" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1916</v>
       </c>
@@ -10145,13 +10145,13 @@
         <v>1066</v>
       </c>
       <c r="H215" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I215" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1916</v>
       </c>
@@ -10171,13 +10171,13 @@
         <v>1067</v>
       </c>
       <c r="H216" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I216" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1916</v>
       </c>
@@ -10197,13 +10197,13 @@
         <v>1068</v>
       </c>
       <c r="H217" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I217" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1916</v>
       </c>
@@ -10226,10 +10226,13 @@
         <v>1260</v>
       </c>
       <c r="I218" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J218" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1916</v>
       </c>
@@ -10252,10 +10255,13 @@
         <v>1260</v>
       </c>
       <c r="I219" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J219" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1916</v>
       </c>
@@ -10278,10 +10284,13 @@
         <v>1260</v>
       </c>
       <c r="I220" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J220" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1916</v>
       </c>
@@ -10304,10 +10313,13 @@
         <v>1260</v>
       </c>
       <c r="I221" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J221" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1916</v>
       </c>
@@ -10330,10 +10342,13 @@
         <v>1260</v>
       </c>
       <c r="I222" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J222" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1916</v>
       </c>
@@ -10356,10 +10371,10 @@
         <v>1261</v>
       </c>
       <c r="I223" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1916</v>
       </c>
@@ -10382,10 +10397,10 @@
         <v>1261</v>
       </c>
       <c r="I224" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1916</v>
       </c>
@@ -10408,10 +10423,10 @@
         <v>1262</v>
       </c>
       <c r="I225" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1916</v>
       </c>
@@ -10434,10 +10449,10 @@
         <v>1262</v>
       </c>
       <c r="I226" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1916</v>
       </c>
@@ -10460,10 +10475,10 @@
         <v>1263</v>
       </c>
       <c r="I227" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1916</v>
       </c>
@@ -10486,10 +10501,10 @@
         <v>1263</v>
       </c>
       <c r="I228" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1916</v>
       </c>
@@ -10512,10 +10527,10 @@
         <v>1263</v>
       </c>
       <c r="I229" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1916</v>
       </c>
@@ -10535,13 +10550,13 @@
         <v>1079</v>
       </c>
       <c r="H230" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I230" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1916</v>
       </c>
@@ -10564,10 +10579,10 @@
         <v>1262</v>
       </c>
       <c r="I231" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1916</v>
       </c>
@@ -10590,10 +10605,10 @@
         <v>1206</v>
       </c>
       <c r="I232" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1916</v>
       </c>
@@ -10616,10 +10631,10 @@
         <v>1264</v>
       </c>
       <c r="I233" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1916</v>
       </c>
@@ -10642,10 +10657,10 @@
         <v>1264</v>
       </c>
       <c r="I234" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1916</v>
       </c>
@@ -10665,13 +10680,13 @@
         <v>1082</v>
       </c>
       <c r="H235" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I235" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1916</v>
       </c>
@@ -10691,13 +10706,13 @@
         <v>967</v>
       </c>
       <c r="H236" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I236" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1916</v>
       </c>
@@ -10720,10 +10735,10 @@
         <v>1206</v>
       </c>
       <c r="I237" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1916</v>
       </c>
@@ -10746,10 +10761,10 @@
         <v>1265</v>
       </c>
       <c r="I238" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1916</v>
       </c>
@@ -10772,10 +10787,10 @@
         <v>1265</v>
       </c>
       <c r="I239" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1916</v>
       </c>
@@ -10795,13 +10810,13 @@
         <v>1086</v>
       </c>
       <c r="H240" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I240" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1916</v>
       </c>
@@ -10824,10 +10839,10 @@
         <v>1262</v>
       </c>
       <c r="I241" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1916</v>
       </c>
@@ -10847,13 +10862,13 @@
         <v>1087</v>
       </c>
       <c r="H242" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I242" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1916</v>
       </c>
@@ -10876,10 +10891,10 @@
         <v>1262</v>
       </c>
       <c r="I243" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1916</v>
       </c>
@@ -10899,13 +10914,13 @@
         <v>1089</v>
       </c>
       <c r="H244" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I244" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1916</v>
       </c>
@@ -10928,10 +10943,10 @@
         <v>1262</v>
       </c>
       <c r="I245" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1916</v>
       </c>
@@ -10954,10 +10969,10 @@
         <v>1266</v>
       </c>
       <c r="I246" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1916</v>
       </c>
@@ -10980,10 +10995,10 @@
         <v>1267</v>
       </c>
       <c r="I247" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1916</v>
       </c>
@@ -11006,10 +11021,10 @@
         <v>1268</v>
       </c>
       <c r="I248" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1916</v>
       </c>
@@ -11032,10 +11047,10 @@
         <v>1268</v>
       </c>
       <c r="I249" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1916</v>
       </c>
@@ -11058,10 +11073,10 @@
         <v>1268</v>
       </c>
       <c r="I250" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1916</v>
       </c>
@@ -11084,10 +11099,10 @@
         <v>1268</v>
       </c>
       <c r="I251" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1916</v>
       </c>
@@ -11110,10 +11125,10 @@
         <v>1268</v>
       </c>
       <c r="I252" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1916</v>
       </c>
@@ -11136,10 +11151,10 @@
         <v>1203</v>
       </c>
       <c r="I253" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1916</v>
       </c>
@@ -11162,10 +11177,10 @@
         <v>1269</v>
       </c>
       <c r="I254" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1916</v>
       </c>
@@ -11185,13 +11200,13 @@
         <v>989</v>
       </c>
       <c r="H255" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I255" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1916</v>
       </c>
@@ -11214,10 +11229,10 @@
         <v>1270</v>
       </c>
       <c r="I256" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1916</v>
       </c>
@@ -11240,10 +11255,10 @@
         <v>1270</v>
       </c>
       <c r="I257" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1916</v>
       </c>
@@ -11266,10 +11281,10 @@
         <v>1269</v>
       </c>
       <c r="I258" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1916</v>
       </c>
@@ -11292,10 +11307,10 @@
         <v>1269</v>
       </c>
       <c r="I259" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1916</v>
       </c>
@@ -11318,10 +11333,10 @@
         <v>1269</v>
       </c>
       <c r="I260" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1916</v>
       </c>
@@ -11344,10 +11359,10 @@
         <v>1269</v>
       </c>
       <c r="I261" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1916</v>
       </c>
@@ -11370,10 +11385,10 @@
         <v>1271</v>
       </c>
       <c r="I262" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1916</v>
       </c>
@@ -11393,13 +11408,13 @@
         <v>927</v>
       </c>
       <c r="H263" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I263" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1916</v>
       </c>
@@ -11419,13 +11434,13 @@
         <v>952</v>
       </c>
       <c r="H264" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I264" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1916</v>
       </c>
@@ -11445,13 +11460,13 @@
         <v>1099</v>
       </c>
       <c r="H265" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I265" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1916</v>
       </c>
@@ -11474,10 +11489,10 @@
         <v>1272</v>
       </c>
       <c r="I266" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1916</v>
       </c>
@@ -11497,13 +11512,13 @@
         <v>1100</v>
       </c>
       <c r="H267" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I267" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1916</v>
       </c>
@@ -11523,13 +11538,13 @@
         <v>1101</v>
       </c>
       <c r="H268" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I268" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1916</v>
       </c>
@@ -11552,10 +11567,10 @@
         <v>1272</v>
       </c>
       <c r="I269" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1916</v>
       </c>
@@ -11578,10 +11593,10 @@
         <v>1271</v>
       </c>
       <c r="I270" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1916</v>
       </c>
@@ -11604,10 +11619,10 @@
         <v>1271</v>
       </c>
       <c r="I271" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1916</v>
       </c>
@@ -11627,13 +11642,13 @@
         <v>1104</v>
       </c>
       <c r="H272" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I272" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1916</v>
       </c>
@@ -11656,10 +11671,10 @@
         <v>1271</v>
       </c>
       <c r="I273" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1916</v>
       </c>
@@ -11679,13 +11694,13 @@
         <v>1105</v>
       </c>
       <c r="H274" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I274" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1916</v>
       </c>
@@ -11708,10 +11723,10 @@
         <v>1269</v>
       </c>
       <c r="I275" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1916</v>
       </c>
@@ -11734,10 +11749,10 @@
         <v>1219</v>
       </c>
       <c r="I276" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1916</v>
       </c>
@@ -11760,10 +11775,10 @@
         <v>1219</v>
       </c>
       <c r="I277" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1916</v>
       </c>
@@ -11786,10 +11801,10 @@
         <v>1219</v>
       </c>
       <c r="I278" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1916</v>
       </c>
@@ -11812,10 +11827,10 @@
         <v>1219</v>
       </c>
       <c r="I279" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1916</v>
       </c>
@@ -11835,13 +11850,13 @@
         <v>1110</v>
       </c>
       <c r="H280" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I280" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1916</v>
       </c>
@@ -11861,13 +11876,13 @@
         <v>1111</v>
       </c>
       <c r="H281" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I281" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1916</v>
       </c>
@@ -11890,10 +11905,10 @@
         <v>1273</v>
       </c>
       <c r="I282" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1916</v>
       </c>
@@ -11913,13 +11928,13 @@
         <v>1112</v>
       </c>
       <c r="H283" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I283" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1916</v>
       </c>
@@ -11939,13 +11954,13 @@
         <v>1113</v>
       </c>
       <c r="H284" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I284" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1916</v>
       </c>
@@ -11968,13 +11983,13 @@
         <v>1274</v>
       </c>
       <c r="I285" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J285" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1916</v>
       </c>
@@ -11997,13 +12012,13 @@
         <v>1274</v>
       </c>
       <c r="I286" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J286" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1916</v>
       </c>
@@ -12029,13 +12044,13 @@
         <v>1274</v>
       </c>
       <c r="I287" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J287" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1916</v>
       </c>
@@ -12055,13 +12070,13 @@
         <v>1115</v>
       </c>
       <c r="H288" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I288" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1916</v>
       </c>
@@ -12081,13 +12096,13 @@
         <v>1097</v>
       </c>
       <c r="H289" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I289" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1916</v>
       </c>
@@ -12110,10 +12125,10 @@
         <v>1275</v>
       </c>
       <c r="I290" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1916</v>
       </c>
@@ -12136,10 +12151,10 @@
         <v>1275</v>
       </c>
       <c r="I291" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1916</v>
       </c>
@@ -12162,10 +12177,10 @@
         <v>1273</v>
       </c>
       <c r="I292" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1916</v>
       </c>
@@ -12188,10 +12203,10 @@
         <v>1276</v>
       </c>
       <c r="I293" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1916</v>
       </c>
@@ -12211,13 +12226,13 @@
         <v>1021</v>
       </c>
       <c r="H294" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I294" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1916</v>
       </c>
@@ -12240,13 +12255,13 @@
         <v>1274</v>
       </c>
       <c r="I295" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J295" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1916</v>
       </c>
@@ -12269,13 +12284,13 @@
         <v>1274</v>
       </c>
       <c r="I296" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J296" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1916</v>
       </c>
@@ -12298,10 +12313,10 @@
         <v>1219</v>
       </c>
       <c r="I297" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1916</v>
       </c>
@@ -12324,10 +12339,10 @@
         <v>1219</v>
       </c>
       <c r="I298" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1916</v>
       </c>
@@ -12347,13 +12362,13 @@
         <v>1120</v>
       </c>
       <c r="H299" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I299" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1916</v>
       </c>
@@ -12376,13 +12391,13 @@
         <v>1274</v>
       </c>
       <c r="I300" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J300" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1916</v>
       </c>
@@ -12405,10 +12420,10 @@
         <v>1277</v>
       </c>
       <c r="I301" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1916</v>
       </c>
@@ -12431,10 +12446,10 @@
         <v>1277</v>
       </c>
       <c r="I302" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1916</v>
       </c>
@@ -12460,10 +12475,10 @@
         <v>1277</v>
       </c>
       <c r="I303" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1916</v>
       </c>
@@ -12489,10 +12504,10 @@
         <v>1277</v>
       </c>
       <c r="I304" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1916</v>
       </c>
@@ -12515,10 +12530,10 @@
         <v>1277</v>
       </c>
       <c r="I305" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1916</v>
       </c>
@@ -12541,10 +12556,10 @@
         <v>1277</v>
       </c>
       <c r="I306" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1916</v>
       </c>
@@ -12567,10 +12582,10 @@
         <v>1278</v>
       </c>
       <c r="I307" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1916</v>
       </c>
@@ -12593,10 +12608,10 @@
         <v>1278</v>
       </c>
       <c r="I308" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1916</v>
       </c>
@@ -12619,10 +12634,10 @@
         <v>1279</v>
       </c>
       <c r="I309" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1916</v>
       </c>
@@ -12645,10 +12660,10 @@
         <v>1279</v>
       </c>
       <c r="I310" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1916</v>
       </c>
@@ -12671,10 +12686,10 @@
         <v>1280</v>
       </c>
       <c r="I311" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1916</v>
       </c>
@@ -12697,10 +12712,10 @@
         <v>1281</v>
       </c>
       <c r="I312" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1916</v>
       </c>
@@ -12723,10 +12738,10 @@
         <v>1278</v>
       </c>
       <c r="I313" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1916</v>
       </c>
@@ -12749,10 +12764,10 @@
         <v>1282</v>
       </c>
       <c r="I314" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1916</v>
       </c>
@@ -12775,10 +12790,10 @@
         <v>1279</v>
       </c>
       <c r="I315" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1916</v>
       </c>
@@ -12801,10 +12816,10 @@
         <v>1278</v>
       </c>
       <c r="I316" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1916</v>
       </c>
@@ -12827,10 +12842,10 @@
         <v>1281</v>
       </c>
       <c r="I317" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1916</v>
       </c>
@@ -12853,10 +12868,10 @@
         <v>1282</v>
       </c>
       <c r="I318" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1916</v>
       </c>
@@ -12879,10 +12894,10 @@
         <v>1278</v>
       </c>
       <c r="I319" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1916</v>
       </c>
@@ -12905,10 +12920,10 @@
         <v>1279</v>
       </c>
       <c r="I320" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1916</v>
       </c>
@@ -12928,13 +12943,13 @@
         <v>1130</v>
       </c>
       <c r="H321" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I321" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1916</v>
       </c>
@@ -12954,13 +12969,13 @@
         <v>1131</v>
       </c>
       <c r="H322" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I322" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1916</v>
       </c>
@@ -12983,10 +12998,10 @@
         <v>1283</v>
       </c>
       <c r="I323" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1916</v>
       </c>
@@ -13009,10 +13024,10 @@
         <v>1283</v>
       </c>
       <c r="I324" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1916</v>
       </c>
@@ -13035,10 +13050,10 @@
         <v>1284</v>
       </c>
       <c r="I325" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1916</v>
       </c>
@@ -13061,10 +13076,10 @@
         <v>1284</v>
       </c>
       <c r="I326" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1916</v>
       </c>
@@ -13087,10 +13102,10 @@
         <v>1284</v>
       </c>
       <c r="I327" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1916</v>
       </c>
@@ -13110,13 +13125,13 @@
         <v>967</v>
       </c>
       <c r="H328" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I328" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1916</v>
       </c>
@@ -13136,13 +13151,13 @@
         <v>1021</v>
       </c>
       <c r="H329" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I329" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1916</v>
       </c>
@@ -13165,10 +13180,10 @@
         <v>1285</v>
       </c>
       <c r="I330" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1916</v>
       </c>
@@ -13188,13 +13203,13 @@
         <v>1128</v>
       </c>
       <c r="H331" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I331" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1916</v>
       </c>
@@ -13214,13 +13229,13 @@
         <v>1134</v>
       </c>
       <c r="H332" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I332" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1916</v>
       </c>
@@ -13243,13 +13258,13 @@
         <v>1043</v>
       </c>
       <c r="H333" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I333" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1916</v>
       </c>
@@ -13272,10 +13287,10 @@
         <v>1286</v>
       </c>
       <c r="I334" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1916</v>
       </c>
@@ -13298,10 +13313,10 @@
         <v>1286</v>
       </c>
       <c r="I335" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1916</v>
       </c>
@@ -13324,10 +13339,10 @@
         <v>1287</v>
       </c>
       <c r="I336" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1916</v>
       </c>
@@ -13350,10 +13365,10 @@
         <v>1287</v>
       </c>
       <c r="I337" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1916</v>
       </c>
@@ -13373,13 +13388,13 @@
         <v>920</v>
       </c>
       <c r="H338" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I338" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1916</v>
       </c>
@@ -13399,13 +13414,13 @@
         <v>1098</v>
       </c>
       <c r="H339" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I339" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1916</v>
       </c>
@@ -13428,10 +13443,10 @@
         <v>1283</v>
       </c>
       <c r="I340" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1916</v>
       </c>
@@ -13451,13 +13466,13 @@
         <v>1138</v>
       </c>
       <c r="H341" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I341" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1916</v>
       </c>
@@ -13480,10 +13495,10 @@
         <v>1240</v>
       </c>
       <c r="I342" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1916</v>
       </c>
@@ -13506,10 +13521,10 @@
         <v>1271</v>
       </c>
       <c r="I343" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1916</v>
       </c>
@@ -13529,13 +13544,13 @@
         <v>974</v>
       </c>
       <c r="H344" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I344" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1916</v>
       </c>
@@ -13558,10 +13573,10 @@
         <v>1288</v>
       </c>
       <c r="I345" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1916</v>
       </c>
@@ -13584,10 +13599,10 @@
         <v>1288</v>
       </c>
       <c r="I346" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1916</v>
       </c>
@@ -13610,10 +13625,10 @@
         <v>1240</v>
       </c>
       <c r="I347" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1916</v>
       </c>
@@ -13636,10 +13651,10 @@
         <v>1289</v>
       </c>
       <c r="I348" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1916</v>
       </c>
@@ -13662,10 +13677,10 @@
         <v>1289</v>
       </c>
       <c r="I349" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1916</v>
       </c>
@@ -13688,10 +13703,10 @@
         <v>1290</v>
       </c>
       <c r="I350" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1916</v>
       </c>
@@ -13714,10 +13729,10 @@
         <v>1288</v>
       </c>
       <c r="I351" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1916</v>
       </c>
@@ -13740,10 +13755,10 @@
         <v>1289</v>
       </c>
       <c r="I352" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1916</v>
       </c>
@@ -13766,10 +13781,10 @@
         <v>1291</v>
       </c>
       <c r="I353" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1916</v>
       </c>
@@ -13792,10 +13807,10 @@
         <v>1291</v>
       </c>
       <c r="I354" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1916</v>
       </c>
@@ -13818,10 +13833,10 @@
         <v>1292</v>
       </c>
       <c r="I355" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1916</v>
       </c>
@@ -13841,13 +13856,13 @@
         <v>1021</v>
       </c>
       <c r="H356" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I356" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1916</v>
       </c>
@@ -13867,13 +13882,13 @@
         <v>1144</v>
       </c>
       <c r="H357" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I357" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1916</v>
       </c>
@@ -13893,13 +13908,13 @@
         <v>1145</v>
       </c>
       <c r="H358" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I358" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1916</v>
       </c>
@@ -13919,13 +13934,13 @@
         <v>1146</v>
       </c>
       <c r="H359" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I359" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1916</v>
       </c>
@@ -13948,10 +13963,10 @@
         <v>1293</v>
       </c>
       <c r="I360" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1916</v>
       </c>
@@ -13974,10 +13989,10 @@
         <v>1294</v>
       </c>
       <c r="I361" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1916</v>
       </c>
@@ -14000,10 +14015,10 @@
         <v>1295</v>
       </c>
       <c r="I362" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1916</v>
       </c>
@@ -14026,10 +14041,10 @@
         <v>1295</v>
       </c>
       <c r="I363" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1916</v>
       </c>
@@ -14055,10 +14070,10 @@
         <v>1296</v>
       </c>
       <c r="I364" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1916</v>
       </c>
@@ -14084,10 +14099,10 @@
         <v>1296</v>
       </c>
       <c r="I365" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1916</v>
       </c>
@@ -14113,10 +14128,10 @@
         <v>1296</v>
       </c>
       <c r="I366" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1916</v>
       </c>
@@ -14139,13 +14154,13 @@
         <v>1153</v>
       </c>
       <c r="H367" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I367" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1916</v>
       </c>
@@ -14165,13 +14180,13 @@
         <v>1154</v>
       </c>
       <c r="H368" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I368" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1916</v>
       </c>
@@ -14191,13 +14206,13 @@
         <v>1155</v>
       </c>
       <c r="H369" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I369" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1916</v>
       </c>
@@ -14217,13 +14232,13 @@
         <v>1156</v>
       </c>
       <c r="H370" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I370" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1916</v>
       </c>
@@ -14243,13 +14258,13 @@
         <v>986</v>
       </c>
       <c r="H371" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I371" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1916</v>
       </c>
@@ -14269,13 +14284,13 @@
         <v>1146</v>
       </c>
       <c r="H372" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I372" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1916</v>
       </c>
@@ -14298,10 +14313,10 @@
         <v>1297</v>
       </c>
       <c r="I373" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1916</v>
       </c>
@@ -14324,10 +14339,10 @@
         <v>1297</v>
       </c>
       <c r="I374" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1916</v>
       </c>
@@ -14350,10 +14365,10 @@
         <v>1298</v>
       </c>
       <c r="I375" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1916</v>
       </c>
@@ -14376,10 +14391,10 @@
         <v>1298</v>
       </c>
       <c r="I376" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1916</v>
       </c>
@@ -14402,10 +14417,10 @@
         <v>1298</v>
       </c>
       <c r="I377" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1916</v>
       </c>
@@ -14428,10 +14443,10 @@
         <v>1299</v>
       </c>
       <c r="I378" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1916</v>
       </c>
@@ -14454,10 +14469,10 @@
         <v>1299</v>
       </c>
       <c r="I379" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1916</v>
       </c>
@@ -14483,10 +14498,10 @@
         <v>1300</v>
       </c>
       <c r="I380" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1916</v>
       </c>
@@ -14509,10 +14524,10 @@
         <v>1300</v>
       </c>
       <c r="I381" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1916</v>
       </c>
@@ -14535,10 +14550,10 @@
         <v>1300</v>
       </c>
       <c r="I382" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1916</v>
       </c>
@@ -14561,10 +14576,10 @@
         <v>1300</v>
       </c>
       <c r="I383" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1916</v>
       </c>
@@ -14587,10 +14602,10 @@
         <v>1301</v>
       </c>
       <c r="I384" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1916</v>
       </c>
@@ -14613,10 +14628,10 @@
         <v>1301</v>
       </c>
       <c r="I385" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1916</v>
       </c>
@@ -14639,10 +14654,10 @@
         <v>1301</v>
       </c>
       <c r="I386" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1916</v>
       </c>
@@ -14665,10 +14680,10 @@
         <v>1301</v>
       </c>
       <c r="I387" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1916</v>
       </c>
@@ -14691,10 +14706,10 @@
         <v>1301</v>
       </c>
       <c r="I388" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1916</v>
       </c>
@@ -14717,10 +14732,10 @@
         <v>1301</v>
       </c>
       <c r="I389" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1916</v>
       </c>
@@ -14743,10 +14758,10 @@
         <v>1301</v>
       </c>
       <c r="I390" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1916</v>
       </c>
@@ -14769,10 +14784,10 @@
         <v>1302</v>
       </c>
       <c r="I391" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1916</v>
       </c>
@@ -14795,10 +14810,10 @@
         <v>1303</v>
       </c>
       <c r="I392" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1916</v>
       </c>
@@ -14821,10 +14836,10 @@
         <v>1303</v>
       </c>
       <c r="I393" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1916</v>
       </c>
@@ -14847,10 +14862,10 @@
         <v>1302</v>
       </c>
       <c r="I394" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1916</v>
       </c>
@@ -14873,10 +14888,10 @@
         <v>1304</v>
       </c>
       <c r="I395" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1916</v>
       </c>
@@ -14899,10 +14914,10 @@
         <v>1304</v>
       </c>
       <c r="I396" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1916</v>
       </c>
@@ -14925,10 +14940,10 @@
         <v>1304</v>
       </c>
       <c r="I397" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1916</v>
       </c>
@@ -14954,10 +14969,10 @@
         <v>1305</v>
       </c>
       <c r="I398" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1916</v>
       </c>
@@ -14983,10 +14998,10 @@
         <v>1305</v>
       </c>
       <c r="I399" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1916</v>
       </c>
@@ -15012,10 +15027,10 @@
         <v>1305</v>
       </c>
       <c r="I400" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1916</v>
       </c>
@@ -15041,10 +15056,10 @@
         <v>1305</v>
       </c>
       <c r="I401" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1916</v>
       </c>
@@ -15070,10 +15085,10 @@
         <v>1305</v>
       </c>
       <c r="I402" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1916</v>
       </c>
@@ -15099,10 +15114,10 @@
         <v>1305</v>
       </c>
       <c r="I403" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1916</v>
       </c>
@@ -15128,10 +15143,10 @@
         <v>1306</v>
       </c>
       <c r="I404" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1916</v>
       </c>
@@ -15157,10 +15172,10 @@
         <v>1306</v>
       </c>
       <c r="I405" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1916</v>
       </c>
@@ -15186,10 +15201,10 @@
         <v>1306</v>
       </c>
       <c r="I406" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1916</v>
       </c>
@@ -15215,10 +15230,10 @@
         <v>1306</v>
       </c>
       <c r="I407" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1916</v>
       </c>
@@ -15244,10 +15259,10 @@
         <v>1306</v>
       </c>
       <c r="I408" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1916</v>
       </c>
@@ -15270,10 +15285,10 @@
         <v>1307</v>
       </c>
       <c r="I409" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1916</v>
       </c>
@@ -15296,10 +15311,10 @@
         <v>1307</v>
       </c>
       <c r="I410" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1916</v>
       </c>
@@ -15322,10 +15337,10 @@
         <v>1221</v>
       </c>
       <c r="I411" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1916</v>
       </c>
@@ -15348,10 +15363,10 @@
         <v>1221</v>
       </c>
       <c r="I412" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1916</v>
       </c>
@@ -15374,10 +15389,10 @@
         <v>1221</v>
       </c>
       <c r="I413" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1916</v>
       </c>
@@ -15400,10 +15415,10 @@
         <v>1221</v>
       </c>
       <c r="I414" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1916</v>
       </c>
@@ -15426,10 +15441,10 @@
         <v>1221</v>
       </c>
       <c r="I415" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1916</v>
       </c>
@@ -15452,10 +15467,10 @@
         <v>1221</v>
       </c>
       <c r="I416" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1916</v>
       </c>
@@ -15475,13 +15490,13 @@
         <v>974</v>
       </c>
       <c r="H417" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I417" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1916</v>
       </c>
@@ -15501,19 +15516,19 @@
         <v>1180</v>
       </c>
       <c r="H418" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I418" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="K418" t="s">
         <v>1221</v>
       </c>
       <c r="L418" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1916</v>
       </c>
@@ -15536,10 +15551,10 @@
         <v>1308</v>
       </c>
       <c r="I419" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1916</v>
       </c>
@@ -15559,13 +15574,13 @@
         <v>1181</v>
       </c>
       <c r="H420" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I420" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1916</v>
       </c>
@@ -15585,13 +15600,13 @@
         <v>1182</v>
       </c>
       <c r="H421" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I421" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1916</v>
       </c>
@@ -15611,13 +15626,13 @@
         <v>1183</v>
       </c>
       <c r="H422" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I422" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1916</v>
       </c>
@@ -15637,13 +15652,13 @@
         <v>1184</v>
       </c>
       <c r="H423" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I423" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1916</v>
       </c>
@@ -15663,13 +15678,13 @@
         <v>1185</v>
       </c>
       <c r="H424" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I424" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1916</v>
       </c>
@@ -15692,10 +15707,10 @@
         <v>1309</v>
       </c>
       <c r="I425" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1916</v>
       </c>
@@ -15718,10 +15733,10 @@
         <v>1309</v>
       </c>
       <c r="I426" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1916</v>
       </c>
@@ -15744,10 +15759,10 @@
         <v>1309</v>
       </c>
       <c r="I427" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1916</v>
       </c>
@@ -15770,10 +15785,10 @@
         <v>1309</v>
       </c>
       <c r="I428" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1916</v>
       </c>
@@ -15796,10 +15811,10 @@
         <v>1309</v>
       </c>
       <c r="I429" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1916</v>
       </c>
@@ -15822,10 +15837,10 @@
         <v>1309</v>
       </c>
       <c r="I430" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1916</v>
       </c>
@@ -15848,10 +15863,10 @@
         <v>1310</v>
       </c>
       <c r="I431" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1916</v>
       </c>
@@ -15874,10 +15889,10 @@
         <v>1311</v>
       </c>
       <c r="I432" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1916</v>
       </c>
@@ -15900,10 +15915,10 @@
         <v>1311</v>
       </c>
       <c r="I433" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1916</v>
       </c>
@@ -15926,10 +15941,10 @@
         <v>1312</v>
       </c>
       <c r="I434" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1916</v>
       </c>
@@ -15952,10 +15967,10 @@
         <v>1313</v>
       </c>
       <c r="I435" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1916</v>
       </c>
@@ -15981,10 +15996,10 @@
         <v>1314</v>
       </c>
       <c r="I436" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1916</v>
       </c>
@@ -16007,16 +16022,16 @@
         <v>1314</v>
       </c>
       <c r="I437" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K437" t="s">
         <v>1318</v>
       </c>
       <c r="L437" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1916</v>
       </c>
@@ -16039,22 +16054,22 @@
         <v>1314</v>
       </c>
       <c r="I438" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K438" t="s">
         <v>1315</v>
       </c>
       <c r="L438" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="M438" t="s">
         <v>1318</v>
       </c>
       <c r="N438" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1916</v>
       </c>
@@ -16077,10 +16092,10 @@
         <v>1314</v>
       </c>
       <c r="I439" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1916</v>
       </c>
@@ -16103,10 +16118,10 @@
         <v>1315</v>
       </c>
       <c r="I440" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1916</v>
       </c>
@@ -16129,10 +16144,10 @@
         <v>1315</v>
       </c>
       <c r="I441" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1916</v>
       </c>
@@ -16155,10 +16170,10 @@
         <v>1315</v>
       </c>
       <c r="I442" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1916</v>
       </c>
@@ -16181,10 +16196,10 @@
         <v>1316</v>
       </c>
       <c r="I443" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1916</v>
       </c>
@@ -16207,10 +16222,10 @@
         <v>1316</v>
       </c>
       <c r="I444" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1916</v>
       </c>
@@ -16233,10 +16248,10 @@
         <v>1317</v>
       </c>
       <c r="I445" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1916</v>
       </c>
@@ -16259,10 +16274,10 @@
         <v>1318</v>
       </c>
       <c r="I446" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1916</v>
       </c>
@@ -16285,10 +16300,10 @@
         <v>1318</v>
       </c>
       <c r="I447" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1916</v>
       </c>
@@ -16311,10 +16326,10 @@
         <v>1319</v>
       </c>
       <c r="I448" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1916</v>
       </c>
@@ -16337,10 +16352,10 @@
         <v>1320</v>
       </c>
       <c r="I449" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1916</v>
       </c>
@@ -16363,10 +16378,10 @@
         <v>1320</v>
       </c>
       <c r="I450" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1916</v>
       </c>
@@ -16389,10 +16404,10 @@
         <v>1320</v>
       </c>
       <c r="I451" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1916</v>
       </c>
@@ -16415,10 +16430,10 @@
         <v>1320</v>
       </c>
       <c r="I452" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1916</v>
       </c>
@@ -16441,10 +16456,10 @@
         <v>1320</v>
       </c>
       <c r="I453" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1916</v>
       </c>
@@ -16467,10 +16482,10 @@
         <v>1293</v>
       </c>
       <c r="I454" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1916</v>
       </c>
@@ -16493,10 +16508,10 @@
         <v>1321</v>
       </c>
       <c r="I455" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1916</v>
       </c>
@@ -16519,10 +16534,10 @@
         <v>1322</v>
       </c>
       <c r="I456" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1916</v>
       </c>
@@ -16542,13 +16557,13 @@
         <v>989</v>
       </c>
       <c r="H457" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I457" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1916</v>
       </c>
@@ -16571,7 +16586,7 @@
         <v>1323</v>
       </c>
       <c r="I458" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1916_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1916_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B374E-2104-47C5-8F18-1C4E2041EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C1B352-E264-4D2B-92E4-3E7E7F647FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1380">
   <si>
     <t>Winter</t>
   </si>
@@ -3691,9 +3691,6 @@
     <t>amberg_e</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>wettstein_o</t>
   </si>
   <si>
@@ -3724,9 +3721,6 @@
     <t>steiger_o</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>herzfeld_e</t>
   </si>
   <si>
@@ -3970,9 +3964,6 @@
     <t>strohl_j</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>tschulok_s</t>
   </si>
   <si>
@@ -3991,18 +3982,12 @@
     <t>zollinger_e</t>
   </si>
   <si>
-    <t>jud_j</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
     <t>bachmann_g</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -4012,15 +3997,9 @@
     <t>sauerbruch_f</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -4060,9 +4039,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>tieche_m</t>
   </si>
   <si>
@@ -4157,6 +4133,33 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>jud</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>brun_h</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4198,11 +4201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4506,11 +4512,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
     <col min="6" max="6" width="38.5546875" customWidth="1"/>
@@ -4542,7 +4548,7 @@
         <v>1200</v>
       </c>
       <c r="I1" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4568,7 +4574,7 @@
         <v>1201</v>
       </c>
       <c r="I2" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4591,13 +4597,13 @@
         <v>922</v>
       </c>
       <c r="H3" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="I3" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J3" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4623,7 +4629,7 @@
         <v>1203</v>
       </c>
       <c r="I4" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4646,13 +4652,13 @@
         <v>924</v>
       </c>
       <c r="H5" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="I5" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J5" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4675,13 +4681,13 @@
         <v>925</v>
       </c>
       <c r="H6" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="I6" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J6" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4707,7 +4713,7 @@
         <v>1203</v>
       </c>
       <c r="I7" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4733,7 +4739,7 @@
         <v>1201</v>
       </c>
       <c r="I8" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4756,10 +4762,10 @@
         <v>928</v>
       </c>
       <c r="H9" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="I9" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4785,7 +4791,7 @@
         <v>1204</v>
       </c>
       <c r="I10" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4811,7 +4817,7 @@
         <v>1201</v>
       </c>
       <c r="I11" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4837,7 +4843,7 @@
         <v>1204</v>
       </c>
       <c r="I12" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4863,7 +4869,7 @@
         <v>1201</v>
       </c>
       <c r="I13" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4889,7 +4895,7 @@
         <v>1202</v>
       </c>
       <c r="I14" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4915,7 +4921,7 @@
         <v>1202</v>
       </c>
       <c r="I15" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4935,7 +4941,7 @@
         <v>482</v>
       </c>
       <c r="H16" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4961,7 +4967,7 @@
         <v>1200</v>
       </c>
       <c r="I17" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4981,7 +4987,7 @@
         <v>484</v>
       </c>
       <c r="H18" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5004,10 +5010,10 @@
         <v>921</v>
       </c>
       <c r="H19" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="I19" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5030,10 +5036,10 @@
         <v>934</v>
       </c>
       <c r="H20" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="I20" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5059,7 +5065,7 @@
         <v>1203</v>
       </c>
       <c r="I21" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5082,10 +5088,10 @@
         <v>936</v>
       </c>
       <c r="H22" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="I22" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -5111,7 +5117,7 @@
         <v>1201</v>
       </c>
       <c r="I23" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5137,7 +5143,7 @@
         <v>1202</v>
       </c>
       <c r="I24" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5163,7 +5169,7 @@
         <v>1200</v>
       </c>
       <c r="I25" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5186,10 +5192,10 @@
         <v>940</v>
       </c>
       <c r="H26" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="I26" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5215,7 +5221,7 @@
         <v>1200</v>
       </c>
       <c r="I27" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5241,7 +5247,7 @@
         <v>1205</v>
       </c>
       <c r="I28" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5267,7 +5273,7 @@
         <v>1206</v>
       </c>
       <c r="I29" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5293,7 +5299,7 @@
         <v>1206</v>
       </c>
       <c r="I30" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5319,7 +5325,7 @@
         <v>1207</v>
       </c>
       <c r="I31" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5345,7 +5351,7 @@
         <v>1207</v>
       </c>
       <c r="I32" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5371,7 +5377,7 @@
         <v>1208</v>
       </c>
       <c r="I33" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5397,7 +5403,7 @@
         <v>1209</v>
       </c>
       <c r="I34" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5423,7 +5429,7 @@
         <v>1209</v>
       </c>
       <c r="I35" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5446,10 +5452,10 @@
         <v>937</v>
       </c>
       <c r="H36" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="I36" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5475,7 +5481,7 @@
         <v>1210</v>
       </c>
       <c r="I37" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5501,7 +5507,7 @@
         <v>1208</v>
       </c>
       <c r="I38" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5527,7 +5533,7 @@
         <v>1208</v>
       </c>
       <c r="I39" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5553,7 +5559,7 @@
         <v>1208</v>
       </c>
       <c r="I40" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5579,7 +5585,7 @@
         <v>1211</v>
       </c>
       <c r="I41" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5605,7 +5611,7 @@
         <v>1211</v>
       </c>
       <c r="I42" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5631,7 +5637,7 @@
         <v>1205</v>
       </c>
       <c r="I43" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5657,7 +5663,7 @@
         <v>1211</v>
       </c>
       <c r="I44" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5683,7 +5689,7 @@
         <v>1211</v>
       </c>
       <c r="I45" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5709,7 +5715,7 @@
         <v>1205</v>
       </c>
       <c r="I46" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5735,7 +5741,7 @@
         <v>1212</v>
       </c>
       <c r="I47" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5761,7 +5767,7 @@
         <v>1212</v>
       </c>
       <c r="I48" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5784,10 +5790,10 @@
         <v>960</v>
       </c>
       <c r="H49" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I49" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5813,7 +5819,7 @@
         <v>1213</v>
       </c>
       <c r="I50" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5839,7 +5845,7 @@
         <v>1213</v>
       </c>
       <c r="I51" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5865,7 +5871,7 @@
         <v>1214</v>
       </c>
       <c r="I52" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5891,7 +5897,7 @@
         <v>1214</v>
       </c>
       <c r="I53" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5917,7 +5923,7 @@
         <v>1215</v>
       </c>
       <c r="I54" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5943,7 +5949,7 @@
         <v>1215</v>
       </c>
       <c r="I55" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5966,10 +5972,10 @@
         <v>966</v>
       </c>
       <c r="H56" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="I56" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5995,7 +6001,7 @@
         <v>1217</v>
       </c>
       <c r="I57" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6021,7 +6027,7 @@
         <v>1217</v>
       </c>
       <c r="I58" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6047,7 +6053,7 @@
         <v>1218</v>
       </c>
       <c r="I59" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6073,7 +6079,7 @@
         <v>1215</v>
       </c>
       <c r="I60" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6096,10 +6102,10 @@
         <v>969</v>
       </c>
       <c r="H61" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I61" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6122,10 +6128,10 @@
         <v>970</v>
       </c>
       <c r="H62" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I62" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6151,10 +6157,10 @@
         <v>1220</v>
       </c>
       <c r="I63" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J63" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6180,7 +6186,7 @@
         <v>1221</v>
       </c>
       <c r="I64" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -6206,7 +6212,7 @@
         <v>1222</v>
       </c>
       <c r="I65" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -6232,7 +6238,7 @@
         <v>1205</v>
       </c>
       <c r="I66" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -6255,10 +6261,10 @@
         <v>973</v>
       </c>
       <c r="H67" t="s">
-        <v>1223</v>
+        <v>1377</v>
       </c>
       <c r="I67" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -6284,7 +6290,7 @@
         <v>1209</v>
       </c>
       <c r="I68" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -6307,10 +6313,10 @@
         <v>974</v>
       </c>
       <c r="H69" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="I69" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -6336,7 +6342,7 @@
         <v>1211</v>
       </c>
       <c r="I70" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -6362,7 +6368,7 @@
         <v>1212</v>
       </c>
       <c r="I71" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -6388,7 +6394,7 @@
         <v>1213</v>
       </c>
       <c r="I72" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -6411,10 +6417,10 @@
         <v>935</v>
       </c>
       <c r="H73" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I73" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -6440,7 +6446,7 @@
         <v>1214</v>
       </c>
       <c r="I74" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -6466,7 +6472,7 @@
         <v>1214</v>
       </c>
       <c r="I75" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -6492,7 +6498,7 @@
         <v>1215</v>
       </c>
       <c r="I76" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -6518,7 +6524,7 @@
         <v>1215</v>
       </c>
       <c r="I77" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -6544,7 +6550,7 @@
         <v>1221</v>
       </c>
       <c r="I78" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -6567,10 +6573,10 @@
         <v>979</v>
       </c>
       <c r="H79" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I79" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -6593,10 +6599,10 @@
         <v>980</v>
       </c>
       <c r="H80" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I80" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6622,10 +6628,10 @@
         <v>1220</v>
       </c>
       <c r="I81" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J81" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6651,10 +6657,10 @@
         <v>1220</v>
       </c>
       <c r="I82" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J82" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6677,10 +6683,10 @@
         <v>983</v>
       </c>
       <c r="H83" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I83" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6703,10 +6709,10 @@
         <v>984</v>
       </c>
       <c r="H84" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I84" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6732,10 +6738,10 @@
         <v>945</v>
       </c>
       <c r="H85" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I85" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6761,10 +6767,10 @@
         <v>985</v>
       </c>
       <c r="H86" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I86" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6787,10 +6793,10 @@
         <v>986</v>
       </c>
       <c r="H87" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I87" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6816,10 +6822,10 @@
         <v>987</v>
       </c>
       <c r="H88" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I88" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6845,10 +6851,10 @@
         <v>988</v>
       </c>
       <c r="H89" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I89" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6871,10 +6877,10 @@
         <v>989</v>
       </c>
       <c r="H90" t="s">
-        <v>1346</v>
+        <v>1372</v>
       </c>
       <c r="I90" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6897,10 +6903,10 @@
         <v>990</v>
       </c>
       <c r="H91" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I91" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6923,10 +6929,10 @@
         <v>921</v>
       </c>
       <c r="H92" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I92" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6949,10 +6955,10 @@
         <v>991</v>
       </c>
       <c r="H93" t="s">
-        <v>1326</v>
+        <v>1375</v>
       </c>
       <c r="I93" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6975,10 +6981,10 @@
         <v>992</v>
       </c>
       <c r="H94" t="s">
-        <v>1326</v>
+        <v>1375</v>
       </c>
       <c r="I94" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7001,10 +7007,10 @@
         <v>986</v>
       </c>
       <c r="H95" t="s">
-        <v>1326</v>
+        <v>1375</v>
       </c>
       <c r="I95" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7027,10 +7033,10 @@
         <v>927</v>
       </c>
       <c r="H96" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I96" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7053,10 +7059,10 @@
         <v>967</v>
       </c>
       <c r="H97" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I97" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7079,10 +7085,10 @@
         <v>993</v>
       </c>
       <c r="H98" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I98" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7105,10 +7111,10 @@
         <v>994</v>
       </c>
       <c r="H99" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I99" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7131,10 +7137,10 @@
         <v>995</v>
       </c>
       <c r="H100" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="I100" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7157,10 +7163,10 @@
         <v>996</v>
       </c>
       <c r="H101" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I101" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7183,10 +7189,10 @@
         <v>997</v>
       </c>
       <c r="H102" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I102" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7209,10 +7215,10 @@
         <v>998</v>
       </c>
       <c r="H103" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I103" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7235,10 +7241,10 @@
         <v>936</v>
       </c>
       <c r="H104" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I104" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7261,10 +7267,10 @@
         <v>999</v>
       </c>
       <c r="H105" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I105" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7287,10 +7293,10 @@
         <v>986</v>
       </c>
       <c r="H106" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I106" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7313,10 +7319,10 @@
         <v>1000</v>
       </c>
       <c r="H107" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="I107" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7339,10 +7345,10 @@
         <v>1001</v>
       </c>
       <c r="H108" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="I108" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7365,10 +7371,10 @@
         <v>1002</v>
       </c>
       <c r="H109" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I109" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7391,10 +7397,10 @@
         <v>1003</v>
       </c>
       <c r="H110" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I110" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7417,10 +7423,10 @@
         <v>1004</v>
       </c>
       <c r="H111" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I111" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7446,7 +7452,7 @@
         <v>1216</v>
       </c>
       <c r="I112" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7472,7 +7478,7 @@
         <v>1216</v>
       </c>
       <c r="I113" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7495,10 +7501,10 @@
         <v>1007</v>
       </c>
       <c r="H114" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I114" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7521,10 +7527,10 @@
         <v>921</v>
       </c>
       <c r="H115" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="I115" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7547,10 +7553,10 @@
         <v>1008</v>
       </c>
       <c r="H116" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="I116" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7573,10 +7579,10 @@
         <v>1009</v>
       </c>
       <c r="H117" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I117" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7599,10 +7605,10 @@
         <v>989</v>
       </c>
       <c r="H118" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I118" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7625,10 +7631,10 @@
         <v>1010</v>
       </c>
       <c r="H119" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I119" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7651,10 +7657,10 @@
         <v>989</v>
       </c>
       <c r="H120" t="s">
-        <v>1234</v>
+        <v>1376</v>
       </c>
       <c r="I120" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7677,10 +7683,10 @@
         <v>989</v>
       </c>
       <c r="H121" t="s">
-        <v>1234</v>
+        <v>1376</v>
       </c>
       <c r="I121" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7703,10 +7709,10 @@
         <v>989</v>
       </c>
       <c r="H122" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="I122" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7729,10 +7735,10 @@
         <v>921</v>
       </c>
       <c r="H123" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I123" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7755,10 +7761,10 @@
         <v>921</v>
       </c>
       <c r="H124" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I124" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7781,10 +7787,10 @@
         <v>1011</v>
       </c>
       <c r="H125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I125" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7807,10 +7813,10 @@
         <v>1012</v>
       </c>
       <c r="H126" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I126" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7833,10 +7839,10 @@
         <v>989</v>
       </c>
       <c r="H127" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I127" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7859,10 +7865,10 @@
         <v>1013</v>
       </c>
       <c r="H128" t="s">
-        <v>1326</v>
+        <v>1375</v>
       </c>
       <c r="I128" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7885,10 +7891,10 @@
         <v>1014</v>
       </c>
       <c r="H129" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I129" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -7911,10 +7917,10 @@
         <v>1015</v>
       </c>
       <c r="H130" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I130" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -7937,10 +7943,10 @@
         <v>1016</v>
       </c>
       <c r="H131" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="I131" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -7963,10 +7969,10 @@
         <v>1017</v>
       </c>
       <c r="H132" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I132" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -7989,10 +7995,10 @@
         <v>989</v>
       </c>
       <c r="H133" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I133" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -8015,10 +8021,10 @@
         <v>921</v>
       </c>
       <c r="H134" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I134" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -8041,10 +8047,10 @@
         <v>1018</v>
       </c>
       <c r="H135" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I135" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -8067,10 +8073,10 @@
         <v>989</v>
       </c>
       <c r="H136" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I136" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -8093,10 +8099,10 @@
         <v>1019</v>
       </c>
       <c r="H137" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I137" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -8119,10 +8125,10 @@
         <v>1020</v>
       </c>
       <c r="H138" t="s">
-        <v>1240</v>
+        <v>1373</v>
       </c>
       <c r="I138" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -8145,10 +8151,10 @@
         <v>1021</v>
       </c>
       <c r="H139" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I139" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -8171,16 +8177,16 @@
         <v>989</v>
       </c>
       <c r="H140" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="I140" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="K140" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="L140" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -8203,10 +8209,10 @@
         <v>1022</v>
       </c>
       <c r="H141" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="I141" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -8229,10 +8235,10 @@
         <v>1023</v>
       </c>
       <c r="H142" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="I142" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -8255,10 +8261,10 @@
         <v>989</v>
       </c>
       <c r="H143" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I143" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -8281,10 +8287,10 @@
         <v>921</v>
       </c>
       <c r="H144" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I144" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -8307,13 +8313,13 @@
         <v>1024</v>
       </c>
       <c r="H145" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I145" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J145" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -8336,13 +8342,13 @@
         <v>1025</v>
       </c>
       <c r="H146" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I146" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J146" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -8365,10 +8371,10 @@
         <v>1026</v>
       </c>
       <c r="H147" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I147" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -8391,10 +8397,10 @@
         <v>1027</v>
       </c>
       <c r="H148" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I148" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -8417,10 +8423,10 @@
         <v>1028</v>
       </c>
       <c r="H149" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I149" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -8442,11 +8448,11 @@
       <c r="G150" t="s">
         <v>966</v>
       </c>
-      <c r="H150" t="s">
-        <v>1330</v>
+      <c r="H150" s="1" t="s">
+        <v>1374</v>
       </c>
       <c r="I150" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -8468,11 +8474,11 @@
       <c r="G151" t="s">
         <v>1029</v>
       </c>
-      <c r="H151" t="s">
-        <v>1330</v>
+      <c r="H151" s="1" t="s">
+        <v>1374</v>
       </c>
       <c r="I151" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -8495,10 +8501,10 @@
         <v>1030</v>
       </c>
       <c r="H152" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="I152" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -8521,10 +8527,10 @@
         <v>921</v>
       </c>
       <c r="H153" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I153" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -8547,10 +8553,10 @@
         <v>921</v>
       </c>
       <c r="H154" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I154" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -8573,10 +8579,10 @@
         <v>921</v>
       </c>
       <c r="H155" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="I155" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -8599,10 +8605,10 @@
         <v>1031</v>
       </c>
       <c r="H156" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I156" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -8625,10 +8631,10 @@
         <v>1032</v>
       </c>
       <c r="H157" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I157" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -8651,10 +8657,10 @@
         <v>989</v>
       </c>
       <c r="H158" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="I158" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -8677,10 +8683,10 @@
         <v>921</v>
       </c>
       <c r="H159" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I159" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -8703,10 +8709,10 @@
         <v>921</v>
       </c>
       <c r="H160" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I160" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8729,10 +8735,10 @@
         <v>989</v>
       </c>
       <c r="H161" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I161" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8755,10 +8761,10 @@
         <v>1033</v>
       </c>
       <c r="H162" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I162" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -8781,10 +8787,10 @@
         <v>1025</v>
       </c>
       <c r="H163" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I163" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8807,10 +8813,10 @@
         <v>921</v>
       </c>
       <c r="H164" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I164" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -8833,10 +8839,10 @@
         <v>1034</v>
       </c>
       <c r="H165" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="I165" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -8859,10 +8865,10 @@
         <v>989</v>
       </c>
       <c r="H166" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="I166" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -8885,10 +8891,10 @@
         <v>1004</v>
       </c>
       <c r="H167" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="I167" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -8911,10 +8917,10 @@
         <v>1035</v>
       </c>
       <c r="H168" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="I168" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -8937,10 +8943,10 @@
         <v>1036</v>
       </c>
       <c r="H169" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="I169" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -8963,10 +8969,10 @@
         <v>1037</v>
       </c>
       <c r="H170" t="s">
-        <v>1332</v>
+        <v>1379</v>
       </c>
       <c r="I170" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -8989,16 +8995,16 @@
         <v>1038</v>
       </c>
       <c r="H171" t="s">
-        <v>1332</v>
+        <v>1379</v>
       </c>
       <c r="I171" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="K171" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="L171" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9021,10 +9027,10 @@
         <v>1035</v>
       </c>
       <c r="H172" t="s">
-        <v>1332</v>
+        <v>1379</v>
       </c>
       <c r="I172" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9047,10 +9053,10 @@
         <v>1039</v>
       </c>
       <c r="H173" t="s">
-        <v>1332</v>
+        <v>1379</v>
       </c>
       <c r="I173" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9073,10 +9079,10 @@
         <v>921</v>
       </c>
       <c r="H174" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="I174" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9099,10 +9105,10 @@
         <v>1040</v>
       </c>
       <c r="H175" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="I175" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9125,10 +9131,10 @@
         <v>989</v>
       </c>
       <c r="H176" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I176" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9151,10 +9157,10 @@
         <v>1041</v>
       </c>
       <c r="H177" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I177" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9177,10 +9183,10 @@
         <v>936</v>
       </c>
       <c r="H178" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I178" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9203,10 +9209,10 @@
         <v>1021</v>
       </c>
       <c r="H179" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I179" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9229,10 +9235,10 @@
         <v>986</v>
       </c>
       <c r="H180" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I180" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9255,10 +9261,10 @@
         <v>1042</v>
       </c>
       <c r="H181" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I181" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9281,10 +9287,10 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I182" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9307,10 +9313,10 @@
         <v>1043</v>
       </c>
       <c r="H183" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="I183" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9333,10 +9339,10 @@
         <v>1044</v>
       </c>
       <c r="H184" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="I184" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9359,10 +9365,10 @@
         <v>1045</v>
       </c>
       <c r="H185" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="I185" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9385,10 +9391,10 @@
         <v>989</v>
       </c>
       <c r="H186" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I186" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9411,10 +9417,10 @@
         <v>1046</v>
       </c>
       <c r="H187" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I187" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9437,10 +9443,10 @@
         <v>1047</v>
       </c>
       <c r="H188" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I188" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9463,10 +9469,10 @@
         <v>1048</v>
       </c>
       <c r="H189" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I189" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9489,10 +9495,10 @@
         <v>1049</v>
       </c>
       <c r="H190" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I190" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9515,10 +9521,10 @@
         <v>930</v>
       </c>
       <c r="H191" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I191" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9541,10 +9547,10 @@
         <v>1043</v>
       </c>
       <c r="H192" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="I192" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9567,10 +9573,10 @@
         <v>1050</v>
       </c>
       <c r="H193" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="I193" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9593,10 +9599,10 @@
         <v>1051</v>
       </c>
       <c r="H194" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="I194" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9619,10 +9625,10 @@
         <v>1052</v>
       </c>
       <c r="H195" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="I195" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -9645,10 +9651,10 @@
         <v>1053</v>
       </c>
       <c r="H196" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="I196" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -9671,10 +9677,10 @@
         <v>950</v>
       </c>
       <c r="H197" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="I197" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -9697,10 +9703,10 @@
         <v>1054</v>
       </c>
       <c r="H198" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="I198" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -9723,10 +9729,10 @@
         <v>1055</v>
       </c>
       <c r="H199" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="I199" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -9749,10 +9755,10 @@
         <v>1056</v>
       </c>
       <c r="H200" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I200" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -9775,10 +9781,10 @@
         <v>1057</v>
       </c>
       <c r="H201" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I201" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -9801,16 +9807,16 @@
         <v>1058</v>
       </c>
       <c r="H202" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I202" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="K202" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="L202" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -9833,10 +9839,10 @@
         <v>986</v>
       </c>
       <c r="H203" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I203" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -9859,10 +9865,10 @@
         <v>1059</v>
       </c>
       <c r="H204" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I204" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -9885,10 +9891,10 @@
         <v>1060</v>
       </c>
       <c r="H205" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I205" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -9911,10 +9917,10 @@
         <v>1061</v>
       </c>
       <c r="H206" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I206" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -9937,10 +9943,10 @@
         <v>987</v>
       </c>
       <c r="H207" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I207" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -9963,10 +9969,10 @@
         <v>986</v>
       </c>
       <c r="H208" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I208" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9989,10 +9995,13 @@
         <v>1062</v>
       </c>
       <c r="H209" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I209" t="s">
-        <v>1370</v>
+        <v>1354</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10015,10 +10024,13 @@
         <v>1063</v>
       </c>
       <c r="H210" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I210" t="s">
-        <v>1370</v>
+        <v>1354</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10041,10 +10053,13 @@
         <v>979</v>
       </c>
       <c r="H211" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I211" t="s">
-        <v>1370</v>
+        <v>1354</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10067,10 +10082,10 @@
         <v>1064</v>
       </c>
       <c r="H212" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I212" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10093,10 +10108,10 @@
         <v>1043</v>
       </c>
       <c r="H213" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I213" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10119,10 +10134,10 @@
         <v>1065</v>
       </c>
       <c r="H214" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I214" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10145,10 +10160,10 @@
         <v>1066</v>
       </c>
       <c r="H215" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I215" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10171,10 +10186,10 @@
         <v>1067</v>
       </c>
       <c r="H216" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I216" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10197,10 +10212,10 @@
         <v>1068</v>
       </c>
       <c r="H217" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I217" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10223,13 +10238,13 @@
         <v>1069</v>
       </c>
       <c r="H218" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I218" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J218" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10252,13 +10267,13 @@
         <v>1070</v>
       </c>
       <c r="H219" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I219" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J219" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10281,13 +10296,13 @@
         <v>1071</v>
       </c>
       <c r="H220" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I220" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J220" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10310,13 +10325,13 @@
         <v>1072</v>
       </c>
       <c r="H221" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I221" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J221" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10339,13 +10354,13 @@
         <v>986</v>
       </c>
       <c r="H222" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I222" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="J222" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10368,10 +10383,10 @@
         <v>1073</v>
       </c>
       <c r="H223" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I223" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10394,10 +10409,10 @@
         <v>1074</v>
       </c>
       <c r="H224" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I224" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10420,10 +10435,10 @@
         <v>1075</v>
       </c>
       <c r="H225" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I225" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10446,10 +10461,10 @@
         <v>1076</v>
       </c>
       <c r="H226" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I226" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10472,10 +10487,10 @@
         <v>1077</v>
       </c>
       <c r="H227" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I227" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10498,10 +10513,10 @@
         <v>941</v>
       </c>
       <c r="H228" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I228" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10524,10 +10539,10 @@
         <v>1078</v>
       </c>
       <c r="H229" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I229" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10550,10 +10565,10 @@
         <v>1079</v>
       </c>
       <c r="H230" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="I230" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10576,10 +10591,10 @@
         <v>1080</v>
       </c>
       <c r="H231" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I231" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10605,7 +10620,7 @@
         <v>1206</v>
       </c>
       <c r="I232" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10628,10 +10643,10 @@
         <v>921</v>
       </c>
       <c r="H233" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I233" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10654,10 +10669,10 @@
         <v>989</v>
       </c>
       <c r="H234" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I234" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10680,10 +10695,10 @@
         <v>1082</v>
       </c>
       <c r="H235" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="I235" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10706,10 +10721,10 @@
         <v>967</v>
       </c>
       <c r="H236" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="I236" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10735,7 +10750,7 @@
         <v>1206</v>
       </c>
       <c r="I237" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10758,10 +10773,10 @@
         <v>1084</v>
       </c>
       <c r="H238" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I238" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10784,10 +10799,10 @@
         <v>1085</v>
       </c>
       <c r="H239" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I239" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10810,10 +10825,10 @@
         <v>1086</v>
       </c>
       <c r="H240" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="I240" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10836,10 +10851,10 @@
         <v>963</v>
       </c>
       <c r="H241" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I241" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10862,10 +10877,10 @@
         <v>1087</v>
       </c>
       <c r="H242" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="I242" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10888,10 +10903,10 @@
         <v>1088</v>
       </c>
       <c r="H243" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I243" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10914,10 +10929,10 @@
         <v>1089</v>
       </c>
       <c r="H244" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="I244" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10940,10 +10955,10 @@
         <v>1059</v>
       </c>
       <c r="H245" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I245" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10966,10 +10981,10 @@
         <v>1004</v>
       </c>
       <c r="H246" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I246" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10992,10 +11007,10 @@
         <v>1086</v>
       </c>
       <c r="H247" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I247" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11018,10 +11033,10 @@
         <v>1090</v>
       </c>
       <c r="H248" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I248" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11044,10 +11059,10 @@
         <v>1080</v>
       </c>
       <c r="H249" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I249" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11070,10 +11085,10 @@
         <v>1091</v>
       </c>
       <c r="H250" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I250" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11096,10 +11111,10 @@
         <v>1092</v>
       </c>
       <c r="H251" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I251" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11122,10 +11137,10 @@
         <v>1093</v>
       </c>
       <c r="H252" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I252" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11151,7 +11166,7 @@
         <v>1203</v>
       </c>
       <c r="I253" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11174,10 +11189,10 @@
         <v>1094</v>
       </c>
       <c r="H254" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I254" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11200,10 +11215,10 @@
         <v>989</v>
       </c>
       <c r="H255" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="I255" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11226,10 +11241,10 @@
         <v>1095</v>
       </c>
       <c r="H256" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I256" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11252,10 +11267,10 @@
         <v>1095</v>
       </c>
       <c r="H257" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I257" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11278,10 +11293,10 @@
         <v>1044</v>
       </c>
       <c r="H258" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I258" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11304,10 +11319,10 @@
         <v>1096</v>
       </c>
       <c r="H259" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I259" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11330,10 +11345,10 @@
         <v>967</v>
       </c>
       <c r="H260" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I260" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11356,10 +11371,10 @@
         <v>1097</v>
       </c>
       <c r="H261" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I261" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11382,10 +11397,10 @@
         <v>1098</v>
       </c>
       <c r="H262" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I262" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11408,10 +11423,10 @@
         <v>927</v>
       </c>
       <c r="H263" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="I263" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11434,10 +11449,10 @@
         <v>952</v>
       </c>
       <c r="H264" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="I264" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11460,10 +11475,10 @@
         <v>1099</v>
       </c>
       <c r="H265" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I265" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11486,10 +11501,10 @@
         <v>921</v>
       </c>
       <c r="H266" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I266" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11512,10 +11527,10 @@
         <v>1100</v>
       </c>
       <c r="H267" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="I267" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11538,10 +11553,10 @@
         <v>1101</v>
       </c>
       <c r="H268" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="I268" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11564,10 +11579,10 @@
         <v>921</v>
       </c>
       <c r="H269" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I269" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11590,10 +11605,10 @@
         <v>1102</v>
       </c>
       <c r="H270" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I270" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11616,10 +11631,10 @@
         <v>1103</v>
       </c>
       <c r="H271" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I271" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11642,10 +11657,10 @@
         <v>1104</v>
       </c>
       <c r="H272" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="I272" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11668,10 +11683,10 @@
         <v>963</v>
       </c>
       <c r="H273" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I273" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11694,10 +11709,10 @@
         <v>1105</v>
       </c>
       <c r="H274" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="I274" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11720,10 +11735,10 @@
         <v>1106</v>
       </c>
       <c r="H275" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I275" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11749,7 +11764,7 @@
         <v>1219</v>
       </c>
       <c r="I276" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11775,7 +11790,7 @@
         <v>1219</v>
       </c>
       <c r="I277" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11801,7 +11816,7 @@
         <v>1219</v>
       </c>
       <c r="I278" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11827,7 +11842,7 @@
         <v>1219</v>
       </c>
       <c r="I279" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11850,10 +11865,10 @@
         <v>1110</v>
       </c>
       <c r="H280" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="I280" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11876,10 +11891,10 @@
         <v>1111</v>
       </c>
       <c r="H281" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="I281" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11902,10 +11917,10 @@
         <v>989</v>
       </c>
       <c r="H282" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I282" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -11928,10 +11943,10 @@
         <v>1112</v>
       </c>
       <c r="H283" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="I283" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -11954,10 +11969,10 @@
         <v>1113</v>
       </c>
       <c r="H284" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="I284" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -11980,13 +11995,13 @@
         <v>927</v>
       </c>
       <c r="H285" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I285" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J285" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -12009,13 +12024,13 @@
         <v>1114</v>
       </c>
       <c r="H286" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I286" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J286" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -12041,13 +12056,13 @@
         <v>1010</v>
       </c>
       <c r="H287" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I287" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J287" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12070,10 +12085,10 @@
         <v>1115</v>
       </c>
       <c r="H288" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="I288" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12096,10 +12111,10 @@
         <v>1097</v>
       </c>
       <c r="H289" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="I289" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12122,10 +12137,10 @@
         <v>943</v>
       </c>
       <c r="H290" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I290" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12148,10 +12163,10 @@
         <v>967</v>
       </c>
       <c r="H291" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I291" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12174,10 +12189,10 @@
         <v>967</v>
       </c>
       <c r="H292" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I292" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12200,10 +12215,10 @@
         <v>1116</v>
       </c>
       <c r="H293" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I293" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12226,10 +12241,10 @@
         <v>1021</v>
       </c>
       <c r="H294" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="I294" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12252,13 +12267,13 @@
         <v>950</v>
       </c>
       <c r="H295" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I295" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J295" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12281,13 +12296,13 @@
         <v>1117</v>
       </c>
       <c r="H296" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I296" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J296" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12313,7 +12328,7 @@
         <v>1219</v>
       </c>
       <c r="I297" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12339,7 +12354,7 @@
         <v>1219</v>
       </c>
       <c r="I298" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12362,10 +12377,10 @@
         <v>1120</v>
       </c>
       <c r="H299" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="I299" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12388,13 +12403,13 @@
         <v>936</v>
       </c>
       <c r="H300" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I300" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="J300" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12417,10 +12432,10 @@
         <v>1121</v>
       </c>
       <c r="H301" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I301" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12443,10 +12458,10 @@
         <v>1107</v>
       </c>
       <c r="H302" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I302" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12472,10 +12487,10 @@
         <v>966</v>
       </c>
       <c r="H303" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I303" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12501,10 +12516,10 @@
         <v>1021</v>
       </c>
       <c r="H304" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I304" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12527,10 +12542,10 @@
         <v>1122</v>
       </c>
       <c r="H305" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I305" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12553,10 +12568,10 @@
         <v>1123</v>
       </c>
       <c r="H306" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I306" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12579,10 +12594,10 @@
         <v>1019</v>
       </c>
       <c r="H307" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I307" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12605,10 +12620,10 @@
         <v>951</v>
       </c>
       <c r="H308" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I308" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12631,10 +12646,10 @@
         <v>1124</v>
       </c>
       <c r="H309" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I309" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12657,10 +12672,10 @@
         <v>1125</v>
       </c>
       <c r="H310" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I310" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12683,10 +12698,10 @@
         <v>1126</v>
       </c>
       <c r="H311" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I311" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12709,10 +12724,10 @@
         <v>1127</v>
       </c>
       <c r="H312" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I312" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12735,10 +12750,10 @@
         <v>1069</v>
       </c>
       <c r="H313" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I313" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12761,10 +12776,10 @@
         <v>1076</v>
       </c>
       <c r="H314" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I314" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12787,10 +12802,10 @@
         <v>1128</v>
       </c>
       <c r="H315" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I315" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12813,10 +12828,10 @@
         <v>1129</v>
       </c>
       <c r="H316" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I316" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12839,10 +12854,10 @@
         <v>943</v>
       </c>
       <c r="H317" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I317" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12865,10 +12880,10 @@
         <v>969</v>
       </c>
       <c r="H318" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I318" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12891,10 +12906,10 @@
         <v>1098</v>
       </c>
       <c r="H319" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I319" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12917,10 +12932,10 @@
         <v>1025</v>
       </c>
       <c r="H320" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I320" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12943,10 +12958,10 @@
         <v>1130</v>
       </c>
       <c r="H321" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="I321" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12969,10 +12984,10 @@
         <v>1131</v>
       </c>
       <c r="H322" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="I322" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12995,10 +13010,10 @@
         <v>1132</v>
       </c>
       <c r="H323" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I323" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13021,10 +13036,10 @@
         <v>949</v>
       </c>
       <c r="H324" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I324" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13047,10 +13062,10 @@
         <v>973</v>
       </c>
       <c r="H325" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I325" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13073,10 +13088,10 @@
         <v>1133</v>
       </c>
       <c r="H326" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I326" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13099,10 +13114,10 @@
         <v>921</v>
       </c>
       <c r="H327" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I327" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13125,10 +13140,10 @@
         <v>967</v>
       </c>
       <c r="H328" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I328" t="s">
         <v>1359</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13151,10 +13166,10 @@
         <v>1021</v>
       </c>
       <c r="H329" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I329" t="s">
         <v>1359</v>
-      </c>
-      <c r="I329" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13177,10 +13192,10 @@
         <v>989</v>
       </c>
       <c r="H330" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I330" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13203,10 +13218,10 @@
         <v>1128</v>
       </c>
       <c r="H331" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="I331" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13229,10 +13244,10 @@
         <v>1134</v>
       </c>
       <c r="H332" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="I332" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13258,10 +13273,10 @@
         <v>1043</v>
       </c>
       <c r="H333" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="I333" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13284,10 +13299,10 @@
         <v>1004</v>
       </c>
       <c r="H334" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I334" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13310,10 +13325,10 @@
         <v>1135</v>
       </c>
       <c r="H335" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I335" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13336,10 +13351,10 @@
         <v>1136</v>
       </c>
       <c r="H336" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I336" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13362,10 +13377,10 @@
         <v>921</v>
       </c>
       <c r="H337" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I337" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13388,10 +13403,10 @@
         <v>920</v>
       </c>
       <c r="H338" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="I338" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13414,10 +13429,10 @@
         <v>1098</v>
       </c>
       <c r="H339" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="I339" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13440,10 +13455,10 @@
         <v>1137</v>
       </c>
       <c r="H340" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I340" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13466,10 +13481,10 @@
         <v>1138</v>
       </c>
       <c r="H341" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="I341" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13492,10 +13507,10 @@
         <v>989</v>
       </c>
       <c r="H342" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I342" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13518,10 +13533,10 @@
         <v>1139</v>
       </c>
       <c r="H343" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I343" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13544,10 +13559,10 @@
         <v>974</v>
       </c>
       <c r="H344" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="I344" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13570,10 +13585,10 @@
         <v>935</v>
       </c>
       <c r="H345" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I345" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13596,10 +13611,10 @@
         <v>1098</v>
       </c>
       <c r="H346" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I346" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13622,10 +13637,10 @@
         <v>1140</v>
       </c>
       <c r="H347" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I347" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13648,10 +13663,10 @@
         <v>989</v>
       </c>
       <c r="H348" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I348" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13674,10 +13689,10 @@
         <v>1116</v>
       </c>
       <c r="H349" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I349" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13700,10 +13715,10 @@
         <v>989</v>
       </c>
       <c r="H350" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I350" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13726,10 +13741,10 @@
         <v>921</v>
       </c>
       <c r="H351" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I351" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13752,10 +13767,10 @@
         <v>1141</v>
       </c>
       <c r="H352" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I352" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13778,10 +13793,10 @@
         <v>1142</v>
       </c>
       <c r="H353" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I353" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13804,10 +13819,10 @@
         <v>1143</v>
       </c>
       <c r="H354" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I354" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13830,10 +13845,10 @@
         <v>1004</v>
       </c>
       <c r="H355" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I355" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13856,10 +13871,10 @@
         <v>1021</v>
       </c>
       <c r="H356" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="I356" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13882,10 +13897,10 @@
         <v>1144</v>
       </c>
       <c r="H357" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="I357" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13908,10 +13923,10 @@
         <v>1145</v>
       </c>
       <c r="H358" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="I358" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13934,10 +13949,10 @@
         <v>1146</v>
       </c>
       <c r="H359" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="I359" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13960,10 +13975,10 @@
         <v>1147</v>
       </c>
       <c r="H360" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I360" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13986,10 +14001,10 @@
         <v>1148</v>
       </c>
       <c r="H361" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I361" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14012,10 +14027,10 @@
         <v>1149</v>
       </c>
       <c r="H362" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I362" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14038,10 +14053,10 @@
         <v>1150</v>
       </c>
       <c r="H363" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I363" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14067,10 +14082,10 @@
         <v>1151</v>
       </c>
       <c r="H364" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I364" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14096,10 +14111,10 @@
         <v>935</v>
       </c>
       <c r="H365" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I365" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14125,10 +14140,10 @@
         <v>1152</v>
       </c>
       <c r="H366" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I366" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14154,10 +14169,10 @@
         <v>1153</v>
       </c>
       <c r="H367" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I367" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14180,10 +14195,10 @@
         <v>1154</v>
       </c>
       <c r="H368" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I368" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14206,10 +14221,10 @@
         <v>1155</v>
       </c>
       <c r="H369" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I369" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14232,10 +14247,10 @@
         <v>1156</v>
       </c>
       <c r="H370" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I370" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14258,10 +14273,10 @@
         <v>986</v>
       </c>
       <c r="H371" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I371" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14284,10 +14299,10 @@
         <v>1146</v>
       </c>
       <c r="H372" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I372" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14310,10 +14325,10 @@
         <v>921</v>
       </c>
       <c r="H373" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I373" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14336,10 +14351,10 @@
         <v>1157</v>
       </c>
       <c r="H374" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I374" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14362,10 +14377,10 @@
         <v>1158</v>
       </c>
       <c r="H375" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I375" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14388,10 +14403,10 @@
         <v>967</v>
       </c>
       <c r="H376" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I376" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14414,10 +14429,10 @@
         <v>1159</v>
       </c>
       <c r="H377" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I377" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14440,10 +14455,10 @@
         <v>974</v>
       </c>
       <c r="H378" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I378" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14466,10 +14481,10 @@
         <v>1086</v>
       </c>
       <c r="H379" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I379" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14495,10 +14510,10 @@
         <v>1160</v>
       </c>
       <c r="H380" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I380" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14521,10 +14536,10 @@
         <v>986</v>
       </c>
       <c r="H381" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I381" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14547,10 +14562,10 @@
         <v>986</v>
       </c>
       <c r="H382" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I382" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14573,10 +14588,10 @@
         <v>1161</v>
       </c>
       <c r="H383" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I383" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14599,10 +14614,10 @@
         <v>1162</v>
       </c>
       <c r="H384" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I384" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14625,10 +14640,10 @@
         <v>1163</v>
       </c>
       <c r="H385" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I385" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14651,10 +14666,10 @@
         <v>1086</v>
       </c>
       <c r="H386" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I386" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14677,10 +14692,10 @@
         <v>1164</v>
       </c>
       <c r="H387" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I387" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14703,10 +14718,10 @@
         <v>1165</v>
       </c>
       <c r="H388" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I388" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14729,10 +14744,10 @@
         <v>1166</v>
       </c>
       <c r="H389" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I389" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14755,10 +14770,10 @@
         <v>1167</v>
       </c>
       <c r="H390" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I390" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14781,10 +14796,10 @@
         <v>1168</v>
       </c>
       <c r="H391" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I391" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14807,10 +14822,10 @@
         <v>921</v>
       </c>
       <c r="H392" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I392" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14833,10 +14848,10 @@
         <v>921</v>
       </c>
       <c r="H393" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I393" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14859,10 +14874,10 @@
         <v>921</v>
       </c>
       <c r="H394" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I394" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14885,10 +14900,10 @@
         <v>989</v>
       </c>
       <c r="H395" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I395" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14911,10 +14926,10 @@
         <v>921</v>
       </c>
       <c r="H396" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I396" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14937,10 +14952,10 @@
         <v>989</v>
       </c>
       <c r="H397" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I397" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14966,10 +14981,10 @@
         <v>1169</v>
       </c>
       <c r="H398" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I398" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -14995,10 +15010,10 @@
         <v>1170</v>
       </c>
       <c r="H399" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I399" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15024,10 +15039,10 @@
         <v>1171</v>
       </c>
       <c r="H400" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I400" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15053,10 +15068,10 @@
         <v>1172</v>
       </c>
       <c r="H401" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I401" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15082,10 +15097,10 @@
         <v>1173</v>
       </c>
       <c r="H402" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I402" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15111,10 +15126,10 @@
         <v>1173</v>
       </c>
       <c r="H403" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I403" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15140,10 +15155,10 @@
         <v>1174</v>
       </c>
       <c r="H404" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I404" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15169,10 +15184,10 @@
         <v>1175</v>
       </c>
       <c r="H405" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I405" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15198,10 +15213,10 @@
         <v>986</v>
       </c>
       <c r="H406" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I406" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15227,10 +15242,10 @@
         <v>1004</v>
       </c>
       <c r="H407" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I407" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15256,10 +15271,10 @@
         <v>921</v>
       </c>
       <c r="H408" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I408" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15282,10 +15297,10 @@
         <v>989</v>
       </c>
       <c r="H409" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I409" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15308,10 +15323,10 @@
         <v>989</v>
       </c>
       <c r="H410" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I410" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15337,7 +15352,7 @@
         <v>1221</v>
       </c>
       <c r="I411" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15363,7 +15378,7 @@
         <v>1221</v>
       </c>
       <c r="I412" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15389,7 +15404,7 @@
         <v>1221</v>
       </c>
       <c r="I413" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15415,7 +15430,7 @@
         <v>1221</v>
       </c>
       <c r="I414" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15441,7 +15456,7 @@
         <v>1221</v>
       </c>
       <c r="I415" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15467,7 +15482,7 @@
         <v>1221</v>
       </c>
       <c r="I416" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15490,10 +15505,10 @@
         <v>974</v>
       </c>
       <c r="H417" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="I417" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15516,16 +15531,16 @@
         <v>1180</v>
       </c>
       <c r="H418" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="I418" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="K418" t="s">
         <v>1221</v>
       </c>
       <c r="L418" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15548,10 +15563,10 @@
         <v>921</v>
       </c>
       <c r="H419" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I419" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15574,10 +15589,10 @@
         <v>1181</v>
       </c>
       <c r="H420" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I420" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15600,10 +15615,10 @@
         <v>1182</v>
       </c>
       <c r="H421" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I421" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15626,10 +15641,10 @@
         <v>1183</v>
       </c>
       <c r="H422" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I422" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15652,10 +15667,10 @@
         <v>1184</v>
       </c>
       <c r="H423" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I423" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15678,10 +15693,10 @@
         <v>1185</v>
       </c>
       <c r="H424" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I424" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15704,10 +15719,10 @@
         <v>1186</v>
       </c>
       <c r="H425" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I425" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15730,10 +15745,10 @@
         <v>1187</v>
       </c>
       <c r="H426" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I426" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15756,10 +15771,10 @@
         <v>1133</v>
       </c>
       <c r="H427" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I427" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15782,10 +15797,10 @@
         <v>1188</v>
       </c>
       <c r="H428" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I428" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15808,10 +15823,10 @@
         <v>1189</v>
       </c>
       <c r="H429" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I429" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -15834,10 +15849,10 @@
         <v>1190</v>
       </c>
       <c r="H430" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I430" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -15860,10 +15875,10 @@
         <v>921</v>
       </c>
       <c r="H431" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I431" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -15886,10 +15901,10 @@
         <v>1191</v>
       </c>
       <c r="H432" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I432" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -15912,10 +15927,10 @@
         <v>951</v>
       </c>
       <c r="H433" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I433" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -15938,10 +15953,10 @@
         <v>971</v>
       </c>
       <c r="H434" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I434" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -15964,10 +15979,10 @@
         <v>1035</v>
       </c>
       <c r="H435" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I435" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
@@ -15993,10 +16008,10 @@
         <v>1192</v>
       </c>
       <c r="H436" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I436" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
@@ -16019,16 +16034,16 @@
         <v>1193</v>
       </c>
       <c r="H437" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I437" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="K437" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="L437" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
@@ -16051,22 +16066,22 @@
         <v>1194</v>
       </c>
       <c r="H438" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I438" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="K438" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L438" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M438" t="s">
         <v>1315</v>
       </c>
-      <c r="L438" t="s">
-        <v>1363</v>
-      </c>
-      <c r="M438" t="s">
-        <v>1318</v>
-      </c>
       <c r="N438" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
@@ -16089,10 +16104,10 @@
         <v>989</v>
       </c>
       <c r="H439" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I439" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
@@ -16115,10 +16130,10 @@
         <v>989</v>
       </c>
       <c r="H440" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I440" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
@@ -16141,10 +16156,10 @@
         <v>1195</v>
       </c>
       <c r="H441" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I441" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
@@ -16167,10 +16182,10 @@
         <v>968</v>
       </c>
       <c r="H442" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I442" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
@@ -16193,10 +16208,10 @@
         <v>989</v>
       </c>
       <c r="H443" t="s">
-        <v>1316</v>
+        <v>1378</v>
       </c>
       <c r="I443" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
@@ -16219,10 +16234,10 @@
         <v>921</v>
       </c>
       <c r="H444" t="s">
-        <v>1316</v>
+        <v>1378</v>
       </c>
       <c r="I444" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
@@ -16245,10 +16260,10 @@
         <v>989</v>
       </c>
       <c r="H445" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I445" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
@@ -16271,10 +16286,10 @@
         <v>1196</v>
       </c>
       <c r="H446" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I446" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
@@ -16297,10 +16312,10 @@
         <v>989</v>
       </c>
       <c r="H447" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I447" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
@@ -16323,10 +16338,10 @@
         <v>989</v>
       </c>
       <c r="H448" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I448" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16349,10 +16364,10 @@
         <v>1197</v>
       </c>
       <c r="H449" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I449" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16375,10 +16390,10 @@
         <v>989</v>
       </c>
       <c r="H450" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I450" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16401,10 +16416,10 @@
         <v>1198</v>
       </c>
       <c r="H451" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I451" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16427,10 +16442,10 @@
         <v>1199</v>
       </c>
       <c r="H452" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I452" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16453,10 +16468,10 @@
         <v>921</v>
       </c>
       <c r="H453" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I453" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16479,10 +16494,10 @@
         <v>989</v>
       </c>
       <c r="H454" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I454" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16505,10 +16520,10 @@
         <v>989</v>
       </c>
       <c r="H455" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I455" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16531,10 +16546,10 @@
         <v>989</v>
       </c>
       <c r="H456" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I456" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -16557,10 +16572,10 @@
         <v>989</v>
       </c>
       <c r="H457" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="I457" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -16583,10 +16598,10 @@
         <v>989</v>
       </c>
       <c r="H458" t="s">
-        <v>1323</v>
+        <v>1371</v>
       </c>
       <c r="I458" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
